--- a/data/processed/X_train_sin_outliers_norm.xlsx
+++ b/data/processed/X_train_sin_outliers_norm.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3344612673618504</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D2" t="n">
         <v>-1.024601595313405</v>
@@ -493,7 +493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3998226541194256</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D3" t="n">
         <v>-1.024601595313405</v>
@@ -513,7 +513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C4" t="n">
-        <v>1.442854919209639</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D4" t="n">
         <v>-1.024601595313405</v>
@@ -533,7 +533,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3936594144483321</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D5" t="n">
         <v>-1.024601595313405</v>
@@ -553,7 +553,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.009074339789912457</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D6" t="n">
         <v>-1.024601595313405</v>
@@ -573,7 +573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08314609364313014</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D7" t="n">
         <v>0.9759891108642286</v>
@@ -593,7 +593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.032864869919456</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D8" t="n">
         <v>-1.024601595313405</v>
@@ -613,7 +613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1171057911332752</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D9" t="n">
         <v>0.9759891108642286</v>
@@ -633,7 +633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5906576094608756</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D10" t="n">
         <v>0.9759891108642286</v>
@@ -653,7 +653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C11" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D11" t="n">
         <v>0.9759891108642286</v>
@@ -673,7 +673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C12" t="n">
-        <v>1.468428754508104</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D12" t="n">
         <v>0.9759891108642286</v>
@@ -693,7 +693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3489195557383509</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D13" t="n">
         <v>0.9759891108642286</v>
@@ -713,7 +713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3548559773615384</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D14" t="n">
         <v>-1.024601595313405</v>
@@ -733,7 +733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2314983940075427</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D15" t="n">
         <v>-1.024601595313405</v>
@@ -753,7 +753,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2449089170012377</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D16" t="n">
         <v>0.9759891108642286</v>
@@ -773,7 +773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.370016559342751</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D17" t="n">
         <v>0.9759891108642286</v>
@@ -793,7 +793,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C18" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D18" t="n">
         <v>0.9759891108642286</v>
@@ -813,7 +813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9762605765274239</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D19" t="n">
         <v>0.9759891108642286</v>
@@ -833,7 +833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.266660355795599</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D20" t="n">
         <v>-1.024601595313405</v>
@@ -853,7 +853,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C21" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D21" t="n">
         <v>0.9759891108642286</v>
@@ -873,7 +873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8259569190837054</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D22" t="n">
         <v>0.9759891108642286</v>
@@ -893,7 +893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.994795813836139</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D23" t="n">
         <v>0.9759891108642286</v>
@@ -913,7 +913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.027360453162043</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D24" t="n">
         <v>-1.024601595313405</v>
@@ -933,7 +933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1587929227835809</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D25" t="n">
         <v>0.9759891108642286</v>
@@ -953,7 +953,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2419161639533916</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D26" t="n">
         <v>-1.024601595313405</v>
@@ -973,7 +973,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1814578955718899</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D27" t="n">
         <v>0.9759891108642286</v>
@@ -993,7 +993,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2754597795397951</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D28" t="n">
         <v>0.9759891108642286</v>
@@ -1013,7 +1013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2125888300596704</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D29" t="n">
         <v>0.9759891108642286</v>
@@ -1033,7 +1033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3234683188942477</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D30" t="n">
         <v>0.9759891108642286</v>
@@ -1053,7 +1053,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9110556108809426</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D31" t="n">
         <v>-1.024601595313405</v>
@@ -1073,7 +1073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.032348010939059</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D32" t="n">
         <v>-1.024601595313405</v>
@@ -1093,7 +1093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C33" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D33" t="n">
         <v>0.9759891108642286</v>
@@ -1113,7 +1113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C34" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D34" t="n">
         <v>0.9759891108642286</v>
@@ -1133,7 +1133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.6158276750196426</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D35" t="n">
         <v>0.9759891108642286</v>
@@ -1153,7 +1153,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C36" t="n">
-        <v>1.139599889212009</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D36" t="n">
         <v>-1.024601595313405</v>
@@ -1173,7 +1173,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C37" t="n">
-        <v>0.385130995126013</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D37" t="n">
         <v>0.9759891108642286</v>
@@ -1193,7 +1193,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03559959894881343</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D38" t="n">
         <v>0.9759891108642286</v>
@@ -1213,7 +1213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C39" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D39" t="n">
         <v>0.9759891108642286</v>
@@ -1233,7 +1233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.002200273615812</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D40" t="n">
         <v>-1.024601595313405</v>
@@ -1253,7 +1253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C41" t="n">
-        <v>2.173780952926234</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D41" t="n">
         <v>0.9759891108642286</v>
@@ -1273,7 +1273,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.737997966873049</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D42" t="n">
         <v>0.9759891108642286</v>
@@ -1293,7 +1293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1552978670907472</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D43" t="n">
         <v>-1.024601595313405</v>
@@ -1313,7 +1313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.610085726235842</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D44" t="n">
         <v>-1.024601595313405</v>
@@ -1333,7 +1333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.07551406999836</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D45" t="n">
         <v>0.9759891108642286</v>
@@ -1353,7 +1353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3223732588335846</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D46" t="n">
         <v>0.9759891108642286</v>
@@ -1373,7 +1373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08881093747860351</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D47" t="n">
         <v>-1.024601595313405</v>
@@ -1393,7 +1393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.037563849338554</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D48" t="n">
         <v>0.9759891108642286</v>
@@ -1413,7 +1413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.04576575474110516</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D49" t="n">
         <v>-1.024601595313405</v>
@@ -1433,7 +1433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8145423165770805</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D50" t="n">
         <v>0.9759891108642286</v>
@@ -1453,7 +1453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.0328237843556331</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D51" t="n">
         <v>-1.024601595313405</v>
@@ -1473,7 +1473,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C52" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D52" t="n">
         <v>0.9759891108642286</v>
@@ -1493,7 +1493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C53" t="n">
-        <v>0.007586764376941993</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D53" t="n">
         <v>-1.024601595313405</v>
@@ -1513,7 +1513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8583885055347532</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D54" t="n">
         <v>0.9759891108642286</v>
@@ -1533,7 +1533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.4573494106471198</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D55" t="n">
         <v>-1.024601595313405</v>
@@ -1553,7 +1553,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2581273950552843</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D56" t="n">
         <v>0.9759891108642286</v>
@@ -1573,7 +1573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.8832482506839737</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D57" t="n">
         <v>0.9759891108642286</v>
@@ -1593,7 +1593,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.4297715209638075</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D58" t="n">
         <v>-1.024601595313405</v>
@@ -1613,7 +1613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.4500661859048344</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D59" t="n">
         <v>0.9759891108642286</v>
@@ -1633,7 +1633,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1341559946731806</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D60" t="n">
         <v>0.9759891108642286</v>
@@ -1653,7 +1653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1759953778575777</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D61" t="n">
         <v>0.9759891108642286</v>
@@ -1673,7 +1673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5267286382577275</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D62" t="n">
         <v>-1.024601595313405</v>
@@ -1693,7 +1693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.194889659871342</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D63" t="n">
         <v>0.9759891108642286</v>
@@ -1713,7 +1713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06447513437193667</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D64" t="n">
         <v>-1.024601595313405</v>
@@ -1733,7 +1733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.06170292415744958</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D65" t="n">
         <v>0.9759891108642286</v>
@@ -1753,7 +1753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1776407135309529</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D66" t="n">
         <v>0.9759891108642286</v>
@@ -1773,7 +1773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C67" t="n">
-        <v>1.981315057128695</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D67" t="n">
         <v>0.9759891108642286</v>
@@ -1793,7 +1793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.6809180144826537</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D68" t="n">
         <v>0.9759891108642286</v>
@@ -1813,7 +1813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.012785510829189</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D69" t="n">
         <v>0.9759891108642286</v>
@@ -1833,7 +1833,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.8157125162824755</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D70" t="n">
         <v>-1.024601595313405</v>
@@ -1853,7 +1853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.3148768980437072</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D71" t="n">
         <v>0.9759891108642286</v>
@@ -1873,7 +1873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C72" t="n">
-        <v>2.173780952926234</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D72" t="n">
         <v>0.9759891108642286</v>
@@ -1893,7 +1893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.37120505735639</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D73" t="n">
         <v>-1.024601595313405</v>
@@ -1913,7 +1913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1675096260497458</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D74" t="n">
         <v>-1.024601595313405</v>
@@ -1933,7 +1933,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.538719573480549</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D75" t="n">
         <v>-1.024601595313405</v>
@@ -1953,7 +1953,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.7193582075401158</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D76" t="n">
         <v>-1.024601595313405</v>
@@ -1973,7 +1973,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.858778039453004</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D77" t="n">
         <v>0.9759891108642286</v>
@@ -1993,7 +1993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.027609234617941</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D78" t="n">
         <v>-1.024601595313405</v>
@@ -2013,7 +2013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C79" t="n">
-        <v>1.564044846831091</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D79" t="n">
         <v>-1.024601595313405</v>
@@ -2033,7 +2033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7022736062294095</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D80" t="n">
         <v>0.9759891108642286</v>
@@ -2053,7 +2053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.085247895453036</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D81" t="n">
         <v>-1.024601595313405</v>
@@ -2073,7 +2073,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1256844982315</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D82" t="n">
         <v>-1.024601595313405</v>
@@ -2093,7 +2093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.4501952296030769</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D83" t="n">
         <v>-1.024601595313405</v>
@@ -2113,7 +2113,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.08220331235895012</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D84" t="n">
         <v>0.9759891108642286</v>
@@ -2133,7 +2133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.9571977067652717</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D85" t="n">
         <v>-1.024601595313405</v>
@@ -2153,7 +2153,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.2683046564985697</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D86" t="n">
         <v>-1.024601595313405</v>
@@ -2173,7 +2173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.000850342074492</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D87" t="n">
         <v>-1.024601595313405</v>
@@ -2193,7 +2193,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C88" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D88" t="n">
         <v>-1.024601595313405</v>
@@ -2213,7 +2213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C89" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D89" t="n">
         <v>0.9759891108642286</v>
@@ -2233,7 +2233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C90" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D90" t="n">
         <v>-1.024601595313405</v>
@@ -2253,7 +2253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.9315705246789974</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D91" t="n">
         <v>-1.024601595313405</v>
@@ -2273,7 +2273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.4784111984305343</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D92" t="n">
         <v>0.9759891108642286</v>
@@ -2293,7 +2293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.6327786565089515</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D93" t="n">
         <v>-1.024601595313405</v>
@@ -2313,7 +2313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.059635636585284</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D94" t="n">
         <v>-1.024601595313405</v>
@@ -2333,7 +2333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9126938002662187</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D95" t="n">
         <v>-1.024601595313405</v>
@@ -2353,7 +2353,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.5660298467221933</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D96" t="n">
         <v>0.9759891108642286</v>
@@ -2373,7 +2373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4573799281461848</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D97" t="n">
         <v>0.9759891108642286</v>
@@ -2393,7 +2393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C98" t="n">
-        <v>2.173780952926234</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D98" t="n">
         <v>0.9759891108642286</v>
@@ -2413,7 +2413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.7029112391643629</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D99" t="n">
         <v>-1.024601595313405</v>
@@ -2433,7 +2433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C100" t="n">
-        <v>0.007072850377209918</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D100" t="n">
         <v>-1.024601595313405</v>
@@ -2453,7 +2453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.6521934316290857</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D101" t="n">
         <v>-1.024601595313405</v>
@@ -2473,7 +2473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2974603716310475</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D102" t="n">
         <v>-1.024601595313405</v>
@@ -2493,7 +2493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.2177454317100262</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D103" t="n">
         <v>-1.024601595313405</v>
@@ -2513,7 +2513,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6968740503802794</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D104" t="n">
         <v>-1.024601595313405</v>
@@ -2533,7 +2533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.09823896411020895</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D105" t="n">
         <v>0.9759891108642286</v>
@@ -2553,7 +2553,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.6153593635993034</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D106" t="n">
         <v>-1.024601595313405</v>
@@ -2573,7 +2573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.846272907866216</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D107" t="n">
         <v>0.9759891108642286</v>
@@ -2593,7 +2593,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.9897511462404635</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D108" t="n">
         <v>-1.024601595313405</v>
@@ -2613,7 +2613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.09008333594569168</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D109" t="n">
         <v>-1.024601595313405</v>
@@ -2633,7 +2633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8443561387053795</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D110" t="n">
         <v>0.9759891108642286</v>
@@ -2653,7 +2653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1744558272413008</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D111" t="n">
         <v>0.9759891108642286</v>
@@ -2673,7 +2673,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.2818391728591128</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D112" t="n">
         <v>0.9759891108642286</v>
@@ -2693,7 +2693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9286724306840007</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D113" t="n">
         <v>-1.024601595313405</v>
@@ -2713,7 +2713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9179091262558515</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D114" t="n">
         <v>0.9759891108642286</v>
@@ -2733,7 +2733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.6541568165250481</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D115" t="n">
         <v>0.9759891108642286</v>
@@ -2753,7 +2753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.4261616687713548</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D116" t="n">
         <v>-1.024601595313405</v>
@@ -2773,7 +2773,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.3125393568247362</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D117" t="n">
         <v>-1.024601595313405</v>
@@ -2793,7 +2793,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C118" t="n">
-        <v>1.130447926492779</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D118" t="n">
         <v>0.9759891108642286</v>
@@ -2813,7 +2813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C119" t="n">
-        <v>2.173780952926234</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D119" t="n">
         <v>-1.024601595313405</v>
@@ -2833,7 +2833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.07183210582962021</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D120" t="n">
         <v>-1.024601595313405</v>
@@ -2853,7 +2853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.5102323838327305</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D121" t="n">
         <v>-1.024601595313405</v>
@@ -2873,7 +2873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C122" t="n">
-        <v>0.03799774529177841</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D122" t="n">
         <v>0.9759891108642286</v>
@@ -2893,7 +2893,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1520288178149307</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D123" t="n">
         <v>-1.024601595313405</v>
@@ -2913,7 +2913,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.6429835400494357</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D124" t="n">
         <v>0.9759891108642286</v>
@@ -2933,7 +2933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.8504771602808255</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D125" t="n">
         <v>-1.024601595313405</v>
@@ -2953,7 +2953,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.4987331416268143</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D126" t="n">
         <v>-1.024601595313405</v>
@@ -2973,7 +2973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.9006023177255535</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D127" t="n">
         <v>0.9759891108642286</v>
@@ -2993,7 +2993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.4412697170570634</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D128" t="n">
         <v>0.9759891108642286</v>
@@ -3013,7 +3013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5016753634927987</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D129" t="n">
         <v>-1.024601595313405</v>
@@ -3033,7 +3033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.07235585626308942</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D130" t="n">
         <v>-1.024601595313405</v>
@@ -3053,7 +3053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.2999685977816074</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D131" t="n">
         <v>-1.024601595313405</v>
@@ -3073,7 +3073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.8098334523719423</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D132" t="n">
         <v>0.9759891108642286</v>
@@ -3093,7 +3093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.027871109834675</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D133" t="n">
         <v>-1.024601595313405</v>
@@ -3113,7 +3113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1193443415737735</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D134" t="n">
         <v>0.9759891108642286</v>
@@ -3133,7 +3133,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.051277345163772</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D135" t="n">
         <v>0.9759891108642286</v>
@@ -3153,7 +3153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C136" t="n">
-        <v>0.08549068496733028</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D136" t="n">
         <v>-1.024601595313405</v>
@@ -3173,7 +3173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C137" t="n">
-        <v>1.193478972856162</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D137" t="n">
         <v>0.9759891108642286</v>
@@ -3193,7 +3193,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C138" t="n">
-        <v>1.463156453789066</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D138" t="n">
         <v>-1.024601595313405</v>
@@ -3213,7 +3213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C139" t="n">
-        <v>2.173780952926234</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D139" t="n">
         <v>0.9759891108642286</v>
@@ -3233,7 +3233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C140" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D140" t="n">
         <v>0.9759891108642286</v>
@@ -3253,7 +3253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C141" t="n">
-        <v>2.173780952926234</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D141" t="n">
         <v>0.9759891108642286</v>
@@ -3273,7 +3273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.7936597474630724</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D142" t="n">
         <v>-1.024601595313405</v>
@@ -3293,7 +3293,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.8999857458644488</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D143" t="n">
         <v>0.9759891108642286</v>
@@ -3313,7 +3313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.008038182552203161</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D144" t="n">
         <v>-1.024601595313405</v>
@@ -3333,7 +3333,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.5769261165315922</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D145" t="n">
         <v>0.9759891108642286</v>
@@ -3353,7 +3353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C146" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D146" t="n">
         <v>-1.024601595313405</v>
@@ -3373,7 +3373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.031252269900617</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D147" t="n">
         <v>-1.024601595313405</v>
@@ -3393,7 +3393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.6057559700492443</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D148" t="n">
         <v>0.9759891108642286</v>
@@ -3413,7 +3413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.04684082142033162</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D149" t="n">
         <v>-1.024601595313405</v>
@@ -3433,7 +3433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6890140209316304</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D150" t="n">
         <v>0.9759891108642286</v>
@@ -3453,7 +3453,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.758734681344543</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D151" t="n">
         <v>0.9759891108642286</v>
@@ -3473,7 +3473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.9959087835072611</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D152" t="n">
         <v>0.9759891108642286</v>
@@ -3493,7 +3493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.09921362876342064</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D153" t="n">
         <v>0.9759891108642286</v>
@@ -3513,7 +3513,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C154" t="n">
-        <v>1.058468581167327</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D154" t="n">
         <v>0.9759891108642286</v>
@@ -3533,7 +3533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.8420871681751826</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D155" t="n">
         <v>0.9759891108642286</v>
@@ -3553,7 +3553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.5916396415236306</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D156" t="n">
         <v>0.9759891108642286</v>
@@ -3573,7 +3573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.122865561360139</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D157" t="n">
         <v>0.9759891108642286</v>
@@ -3593,7 +3593,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6737890856692136</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D158" t="n">
         <v>0.9759891108642286</v>
@@ -3613,7 +3613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.3929657475546597</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D159" t="n">
         <v>0.9759891108642286</v>
@@ -3633,7 +3633,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6538935531019393</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D160" t="n">
         <v>-1.024601595313405</v>
@@ -3653,7 +3653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9316104951068147</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D161" t="n">
         <v>-1.024601595313405</v>
@@ -3673,7 +3673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.7131243527854942</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D162" t="n">
         <v>-1.024601595313405</v>
@@ -3693,7 +3693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C163" t="n">
-        <v>0.006177516760404317</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D163" t="n">
         <v>-1.024601595313405</v>
@@ -3713,7 +3713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6419473201075195</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D164" t="n">
         <v>0.9759891108642286</v>
@@ -3733,7 +3733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.4311036933792972</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D165" t="n">
         <v>-1.024601595313405</v>
@@ -3753,7 +3753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.5174760992300301</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D166" t="n">
         <v>-1.024601595313405</v>
@@ -3773,7 +3773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.8150598163504821</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D167" t="n">
         <v>-1.024601595313405</v>
@@ -3793,7 +3793,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.5764851825241043</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D168" t="n">
         <v>-1.024601595313405</v>
@@ -3813,7 +3813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.002420215084286</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D169" t="n">
         <v>-1.024601595313405</v>
@@ -3833,7 +3833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.653451994401583</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D170" t="n">
         <v>-1.024601595313405</v>
@@ -3853,7 +3853,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C171" t="n">
-        <v>0.618672004538422</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D171" t="n">
         <v>0.9759891108642286</v>
@@ -3873,7 +3873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.1483725499507803</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D172" t="n">
         <v>-1.024601595313405</v>
@@ -3893,7 +3893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2480380333263019</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D173" t="n">
         <v>0.9759891108642286</v>
@@ -3913,7 +3913,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C174" t="n">
-        <v>1.200282668479028</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D174" t="n">
         <v>-1.024601595313405</v>
@@ -3933,7 +3933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.065208452253907</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D175" t="n">
         <v>0.9759891108642286</v>
@@ -3953,7 +3953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.5197660249703657</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D176" t="n">
         <v>-1.024601595313405</v>
@@ -3973,7 +3973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C177" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D177" t="n">
         <v>0.9759891108642286</v>
@@ -3993,7 +3993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C178" t="n">
-        <v>2.173780952926234</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D178" t="n">
         <v>-1.024601595313405</v>
@@ -4013,7 +4013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.072695981311437</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D179" t="n">
         <v>-1.024601595313405</v>
@@ -4033,7 +4033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C180" t="n">
-        <v>2.173780952926234</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D180" t="n">
         <v>0.9759891108642286</v>
@@ -4053,7 +4053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C181" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D181" t="n">
         <v>0.9759891108642286</v>
@@ -4073,7 +4073,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C182" t="n">
-        <v>2.173780952926234</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D182" t="n">
         <v>-1.024601595313405</v>
@@ -4093,7 +4093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.120839474156982</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D183" t="n">
         <v>0.9759891108642286</v>
@@ -4113,7 +4113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C184" t="n">
-        <v>0.04125046156294641</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D184" t="n">
         <v>0.9759891108642286</v>
@@ -4133,7 +4133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.121018651936853</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D185" t="n">
         <v>0.9759891108642286</v>
@@ -4153,7 +4153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.4087664513265394</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D186" t="n">
         <v>0.9759891108642286</v>
@@ -4173,7 +4173,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C187" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D187" t="n">
         <v>0.9759891108642286</v>
@@ -4193,7 +4193,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2572811246180471</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D188" t="n">
         <v>0.9759891108642286</v>
@@ -4213,7 +4213,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.1949753022888709</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D189" t="n">
         <v>0.9759891108642286</v>
@@ -4233,7 +4233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.6121258491970187</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D190" t="n">
         <v>0.9759891108642286</v>
@@ -4253,7 +4253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.0433568051778209</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D191" t="n">
         <v>0.9759891108642286</v>
@@ -4273,7 +4273,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9746079969216629</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D192" t="n">
         <v>-1.024601595313405</v>
@@ -4293,7 +4293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.3801341742810965</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D193" t="n">
         <v>0.9759891108642286</v>
@@ -4313,7 +4313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9338270915852407</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D194" t="n">
         <v>0.9759891108642286</v>
@@ -4333,7 +4333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.06797328873971281</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D195" t="n">
         <v>-1.024601595313405</v>
@@ -4353,7 +4353,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.2634127312670964</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D196" t="n">
         <v>-1.024601595313405</v>
@@ -4373,7 +4373,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.5293677080518566</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D197" t="n">
         <v>-1.024601595313405</v>
@@ -4393,7 +4393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.00434851306414</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D198" t="n">
         <v>0.9759891108642286</v>
@@ -4413,7 +4413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.8140662274696618</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D199" t="n">
         <v>-1.024601595313405</v>
@@ -4433,7 +4433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.4121801648319561</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D200" t="n">
         <v>0.9759891108642286</v>
@@ -4453,7 +4453,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.7018973328916803</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D201" t="n">
         <v>0.9759891108642286</v>
@@ -4473,7 +4473,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9016464341087471</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D202" t="n">
         <v>-1.024601595313405</v>
@@ -4493,7 +4493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.02946735419467202</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D203" t="n">
         <v>-1.024601595313405</v>
@@ -4513,7 +4513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.070637702594037</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D204" t="n">
         <v>0.9759891108642286</v>
@@ -4533,7 +4533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C205" t="n">
-        <v>2.173780952926234</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D205" t="n">
         <v>0.9759891108642286</v>
@@ -4553,7 +4553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C206" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D206" t="n">
         <v>-1.024601595313405</v>
@@ -4573,7 +4573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.9588085715261434</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D207" t="n">
         <v>0.9759891108642286</v>
@@ -4593,7 +4593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.132128874095797</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D208" t="n">
         <v>0.9759891108642286</v>
@@ -4613,7 +4613,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6402005598583722</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D209" t="n">
         <v>-1.024601595313405</v>
@@ -4633,7 +4633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.783271447155396</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D210" t="n">
         <v>0.9759891108642286</v>
@@ -4653,7 +4653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.06164954266448128</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D211" t="n">
         <v>0.9759891108642286</v>
@@ -4673,7 +4673,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.008642245682300312</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D212" t="n">
         <v>-1.024601595313405</v>
@@ -4693,7 +4693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.8736026358286189</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D213" t="n">
         <v>-1.024601595313405</v>
@@ -4713,7 +4713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.6326987156533167</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D214" t="n">
         <v>-1.024601595313405</v>
@@ -4733,7 +4733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.3568221485860091</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D215" t="n">
         <v>0.9759891108642286</v>
@@ -4753,7 +4753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.055983523424497</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D216" t="n">
         <v>0.9759891108642286</v>
@@ -4773,7 +4773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.049984825871786</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D217" t="n">
         <v>0.9759891108642286</v>
@@ -4793,7 +4793,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.8032007609681306</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D218" t="n">
         <v>-1.024601595313405</v>
@@ -4813,7 +4813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.034212099416226</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D219" t="n">
         <v>-1.024601595313405</v>
@@ -4833,7 +4833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.9756582635289341</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D220" t="n">
         <v>0.9759891108642286</v>
@@ -4853,7 +4853,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C221" t="n">
-        <v>1.224433246183912</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D221" t="n">
         <v>0.9759891108642286</v>
@@ -4873,7 +4873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02284035816837843</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D222" t="n">
         <v>-1.024601595313405</v>
@@ -4893,7 +4893,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C223" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D223" t="n">
         <v>0.9759891108642286</v>
@@ -4913,7 +4913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C224" t="n">
-        <v>2.116090808226706</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D224" t="n">
         <v>-1.024601595313405</v>
@@ -4933,7 +4933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0007122870857825166</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D225" t="n">
         <v>0.9759891108642286</v>
@@ -4953,7 +4953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C226" t="n">
-        <v>1.156224359604225</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D226" t="n">
         <v>-1.024601595313405</v>
@@ -4973,7 +4973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.8064961348380261</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D227" t="n">
         <v>0.9759891108642286</v>
@@ -4993,7 +4993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.1970414789089636</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D228" t="n">
         <v>-1.024601595313405</v>
@@ -5013,7 +5013,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.5361224872484001</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D229" t="n">
         <v>0.9759891108642286</v>
@@ -5033,7 +5033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.1367590434866269</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D230" t="n">
         <v>-1.024601595313405</v>
@@ -5053,7 +5053,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1654153382505754</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D231" t="n">
         <v>-1.024601595313405</v>
@@ -5073,7 +5073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.2473794236014581</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D232" t="n">
         <v>0.9759891108642286</v>
@@ -5093,7 +5093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.6125448495437941</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D233" t="n">
         <v>0.9759891108642286</v>
@@ -5113,7 +5113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.2668514622345285</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D234" t="n">
         <v>-1.024601595313405</v>
@@ -5133,7 +5133,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.4367048730788732</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D235" t="n">
         <v>0.9759891108642286</v>
@@ -5153,7 +5153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.064954846780859</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D236" t="n">
         <v>0.9759891108642286</v>
@@ -5173,7 +5173,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.2460119461231445</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D237" t="n">
         <v>0.9759891108642286</v>
@@ -5193,7 +5193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.7928098726471422</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D238" t="n">
         <v>-1.024601595313405</v>
@@ -5213,7 +5213,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.3289424826684637</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D239" t="n">
         <v>-1.024601595313405</v>
@@ -5233,7 +5233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C240" t="n">
-        <v>1.889263147983178</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D240" t="n">
         <v>-1.024601595313405</v>
@@ -5253,7 +5253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.076738894398084</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D241" t="n">
         <v>0.9759891108642286</v>
@@ -5273,7 +5273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.3053281998247917</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D242" t="n">
         <v>0.9759891108642286</v>
@@ -5293,7 +5293,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C243" t="n">
-        <v>0.560893440264934</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D243" t="n">
         <v>-1.024601595313405</v>
@@ -5313,7 +5313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.00428963862720721</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D244" t="n">
         <v>0.9759891108642286</v>
@@ -5333,7 +5333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C245" t="n">
-        <v>2.173780952926234</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D245" t="n">
         <v>0.9759891108642286</v>
@@ -5353,7 +5353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C246" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D246" t="n">
         <v>-1.024601595313405</v>
@@ -5373,7 +5373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.4188374175728315</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D247" t="n">
         <v>0.9759891108642286</v>
@@ -5393,7 +5393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.7387603202349653</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D248" t="n">
         <v>0.9759891108642286</v>
@@ -5413,7 +5413,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C249" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D249" t="n">
         <v>-1.024601595313405</v>
@@ -5433,7 +5433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.122989607515435</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D250" t="n">
         <v>0.9759891108642286</v>
@@ -5453,7 +5453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C251" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D251" t="n">
         <v>-1.024601595313405</v>
@@ -5473,7 +5473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.2924359024381169</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D252" t="n">
         <v>0.9759891108642286</v>
@@ -5493,7 +5493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.9281522300925455</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D253" t="n">
         <v>-1.024601595313405</v>
@@ -5513,7 +5513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1266877517684926</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D254" t="n">
         <v>-1.024601595313405</v>
@@ -5533,7 +5533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.8049022458579588</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D255" t="n">
         <v>0.9759891108642286</v>
@@ -5553,7 +5553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.4289831387323749</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D256" t="n">
         <v>-1.024601595313405</v>
@@ -5573,7 +5573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.073826179615239</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D257" t="n">
         <v>-1.024601595313405</v>
@@ -5593,7 +5593,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C258" t="n">
-        <v>0.4523133794433239</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D258" t="n">
         <v>0.9759891108642286</v>
@@ -5613,7 +5613,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.7081679255364193</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D259" t="n">
         <v>0.9759891108642286</v>
@@ -5633,7 +5633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.5151330051855623</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D260" t="n">
         <v>-1.024601595313405</v>
@@ -5653,7 +5653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.9274451670073621</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D261" t="n">
         <v>-1.024601595313405</v>
@@ -5673,7 +5673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.02957210428136582</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D262" t="n">
         <v>-1.024601595313405</v>
@@ -5693,7 +5693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5317264479388178</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D263" t="n">
         <v>-1.024601595313405</v>
@@ -5713,7 +5713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9033671506147377</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D264" t="n">
         <v>-1.024601595313405</v>
@@ -5733,7 +5733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1059768926407183</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D265" t="n">
         <v>-1.024601595313405</v>
@@ -5753,7 +5753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.6544379878103843</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D266" t="n">
         <v>0.9759891108642286</v>
@@ -5773,7 +5773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.7247783502548554</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D267" t="n">
         <v>0.9759891108642286</v>
@@ -5793,7 +5793,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.238977983751108</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D268" t="n">
         <v>-1.024601595313405</v>
@@ -5813,7 +5813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C269" t="n">
-        <v>2.173780952926234</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D269" t="n">
         <v>0.9759891108642286</v>
@@ -5833,7 +5833,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1422185882212262</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D270" t="n">
         <v>-1.024601595313405</v>
@@ -5853,7 +5853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.04207128145438443</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D271" t="n">
         <v>0.9759891108642286</v>
@@ -5873,7 +5873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.8934043387704044</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D272" t="n">
         <v>-1.024601595313405</v>
@@ -5893,7 +5893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.014912386772994</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D273" t="n">
         <v>-1.024601595313405</v>
@@ -5913,7 +5913,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.3918277554636423</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D274" t="n">
         <v>0.9759891108642286</v>
@@ -5933,7 +5933,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C275" t="n">
-        <v>2.173780952926234</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D275" t="n">
         <v>0.9759891108642286</v>
@@ -5953,7 +5953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.01347673387504072</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D276" t="n">
         <v>-1.024601595313405</v>
@@ -5973,7 +5973,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.7500362942349897</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D277" t="n">
         <v>-1.024601595313405</v>
@@ -5993,7 +5993,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.4785869850205483</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D278" t="n">
         <v>0.9759891108642286</v>
@@ -6013,7 +6013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C279" t="n">
-        <v>2.173780952926234</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D279" t="n">
         <v>0.9759891108642286</v>
@@ -6033,7 +6033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C280" t="n">
-        <v>-1.133463059410529</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D280" t="n">
         <v>0.9759891108642286</v>
@@ -6053,7 +6053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.08181886248567678</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D281" t="n">
         <v>-1.024601595313405</v>
@@ -6073,7 +6073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.1190797097758101</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D282" t="n">
         <v>0.9759891108642286</v>
@@ -6093,7 +6093,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.2838086361158423</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D283" t="n">
         <v>-1.024601595313405</v>
@@ -6113,7 +6113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7995491512930216</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D284" t="n">
         <v>0.9759891108642286</v>
@@ -6133,7 +6133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3518546769287314</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D285" t="n">
         <v>-1.024601595313405</v>
@@ -6153,7 +6153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.7108855031239697</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D286" t="n">
         <v>-1.024601595313405</v>
@@ -6173,7 +6173,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.017640886569982</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D287" t="n">
         <v>0.9759891108642286</v>
@@ -6193,7 +6193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.1593993706539138</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D288" t="n">
         <v>0.9759891108642286</v>
@@ -6213,7 +6213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C289" t="n">
-        <v>0.7518582523969315</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D289" t="n">
         <v>0.9759891108642286</v>
@@ -6233,7 +6233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C290" t="n">
-        <v>0.6591838387912112</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D290" t="n">
         <v>0.9759891108642286</v>
@@ -6253,7 +6253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6896512671519509</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D291" t="n">
         <v>-1.024601595313405</v>
@@ -6273,7 +6273,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C292" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D292" t="n">
         <v>-1.024601595313405</v>
@@ -6293,7 +6293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.2911731750464969</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D293" t="n">
         <v>0.9759891108642286</v>
@@ -6313,7 +6313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.6400139732576871</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D294" t="n">
         <v>-1.024601595313405</v>
@@ -6333,7 +6333,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.3927283642646699</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D295" t="n">
         <v>0.9759891108642286</v>
@@ -6353,7 +6353,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C296" t="n">
-        <v>1.746965612843778</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D296" t="n">
         <v>0.9759891108642286</v>
@@ -6373,7 +6373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C297" t="n">
-        <v>2.173780952926234</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D297" t="n">
         <v>0.9759891108642286</v>
@@ -6393,7 +6393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.133311447442946</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D298" t="n">
         <v>0.9759891108642286</v>
@@ -6413,7 +6413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9682443161153493</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D299" t="n">
         <v>-1.024601595313405</v>
@@ -6433,7 +6433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C300" t="n">
-        <v>-1.086703370341835</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D300" t="n">
         <v>-1.024601595313405</v>
@@ -6453,7 +6453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.863574069371299</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D301" t="n">
         <v>0.9759891108642286</v>
@@ -6473,7 +6473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C302" t="n">
-        <v>2.173780952926234</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D302" t="n">
         <v>-1.024601595313405</v>
@@ -6493,7 +6493,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.3906139573888333</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D303" t="n">
         <v>0.9759891108642286</v>
@@ -6513,7 +6513,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.8489321361651304</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D304" t="n">
         <v>0.9759891108642286</v>
@@ -6533,7 +6533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.1726940545317928</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D305" t="n">
         <v>0.9759891108642286</v>
@@ -6553,7 +6553,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.2055457501464833</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D306" t="n">
         <v>-1.024601595313405</v>
@@ -6573,7 +6573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.7782544792347659</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D307" t="n">
         <v>-1.024601595313405</v>
@@ -6593,7 +6593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.5374104452908712</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D308" t="n">
         <v>0.9759891108642286</v>
@@ -6613,7 +6613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.2209165858988295</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D309" t="n">
         <v>-1.024601595313405</v>
@@ -6633,7 +6633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.8060126721366884</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D310" t="n">
         <v>0.9759891108642286</v>
@@ -6653,7 +6653,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C311" t="n">
-        <v>1.114568585787681</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D311" t="n">
         <v>0.9759891108642286</v>
@@ -6673,7 +6673,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.9018835727143893</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D312" t="n">
         <v>0.9759891108642286</v>
@@ -6693,7 +6693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.1704252691913843</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D313" t="n">
         <v>-1.024601595313405</v>
@@ -6713,7 +6713,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.2438924921255616</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D314" t="n">
         <v>-1.024601595313405</v>
@@ -6733,7 +6733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C315" t="n">
-        <v>0.4887914687209919</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D315" t="n">
         <v>-1.024601595313405</v>
@@ -6753,7 +6753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.5104026027236082</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D316" t="n">
         <v>-1.024601595313405</v>
@@ -6773,7 +6773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C317" t="n">
-        <v>-1.043254974895419</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D317" t="n">
         <v>0.9759891108642286</v>
@@ -6793,7 +6793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.3769591727774847</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D318" t="n">
         <v>0.9759891108642286</v>
@@ -6813,7 +6813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.8057201820115225</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D319" t="n">
         <v>0.9759891108642286</v>
@@ -6833,7 +6833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.2794216511214679</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D320" t="n">
         <v>0.9759891108642286</v>
@@ -6853,7 +6853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.490060213230588</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D321" t="n">
         <v>-1.024601595313405</v>
@@ -6873,7 +6873,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.943036107838219</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D322" t="n">
         <v>-1.024601595313405</v>
@@ -6893,7 +6893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.4885055014175529</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D323" t="n">
         <v>-1.024601595313405</v>
@@ -6913,7 +6913,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2963149444684003</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D324" t="n">
         <v>0.9759891108642286</v>
@@ -6933,7 +6933,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.2141585741645862</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D325" t="n">
         <v>0.9759891108642286</v>
@@ -6953,7 +6953,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C326" t="n">
-        <v>-1.064434170232933</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D326" t="n">
         <v>0.9759891108642286</v>
@@ -6973,7 +6973,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.8344941750962525</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D327" t="n">
         <v>-1.024601595313405</v>
@@ -6993,7 +6993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.6155792108680589</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D328" t="n">
         <v>0.9759891108642286</v>
@@ -7013,7 +7013,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.5370151039470162</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D329" t="n">
         <v>-1.024601595313405</v>
@@ -7033,7 +7033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C330" t="n">
-        <v>0.6522300145984299</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D330" t="n">
         <v>-1.024601595313405</v>
@@ -7053,7 +7053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.2320864315215457</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D331" t="n">
         <v>0.9759891108642286</v>
@@ -7073,7 +7073,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C332" t="n">
-        <v>2.173780952926234</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D332" t="n">
         <v>0.9759891108642286</v>
@@ -7093,7 +7093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C333" t="n">
-        <v>-1.084019838515612</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D333" t="n">
         <v>-1.024601595313405</v>
@@ -7113,7 +7113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C334" t="n">
-        <v>2.172143904362099</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D334" t="n">
         <v>0.9759891108642286</v>
@@ -7133,7 +7133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.134857889512295</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D335" t="n">
         <v>0.9759891108642286</v>
@@ -7153,7 +7153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C336" t="n">
-        <v>2.173780952926234</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D336" t="n">
         <v>-1.024601595313405</v>
@@ -7173,7 +7173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C337" t="n">
-        <v>2.056596526973326</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D337" t="n">
         <v>-1.024601595313405</v>
@@ -7193,7 +7193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.3605301915900376</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D338" t="n">
         <v>-1.024601595313405</v>
@@ -7213,7 +7213,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.1745200119545884</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D339" t="n">
         <v>-1.024601595313405</v>
@@ -7233,7 +7233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.0298820064807682</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D340" t="n">
         <v>-1.024601595313405</v>
@@ -7253,7 +7253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.9261066336319506</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D341" t="n">
         <v>-1.024601595313405</v>
@@ -7273,7 +7273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.9310947764387962</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D342" t="n">
         <v>-1.024601595313405</v>
@@ -7293,7 +7293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C343" t="n">
-        <v>0.6819464837968577</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D343" t="n">
         <v>-1.024601595313405</v>
@@ -7313,7 +7313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.3862857133556075</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D344" t="n">
         <v>-1.024601595313405</v>
@@ -7333,7 +7333,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.510497387471687</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D345" t="n">
         <v>-1.024601595313405</v>
@@ -7353,7 +7353,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C346" t="n">
-        <v>0.6817568647219007</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D346" t="n">
         <v>0.9759891108642286</v>
@@ -7373,7 +7373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C347" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D347" t="n">
         <v>0.9759891108642286</v>
@@ -7393,7 +7393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.1203414307178086</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D348" t="n">
         <v>0.9759891108642286</v>
@@ -7413,7 +7413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.845448159585659</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D349" t="n">
         <v>0.9759891108642286</v>
@@ -7433,7 +7433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C350" t="n">
-        <v>-1.026221295969247</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D350" t="n">
         <v>-1.024601595313405</v>
@@ -7453,7 +7453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.6263220888309876</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D351" t="n">
         <v>0.9759891108642286</v>
@@ -7473,7 +7473,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.5718822868176212</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D352" t="n">
         <v>0.9759891108642286</v>
@@ -7493,7 +7493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C353" t="n">
-        <v>2.173780952926234</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D353" t="n">
         <v>-1.024601595313405</v>
@@ -7513,7 +7513,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C354" t="n">
-        <v>2.173780952926234</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D354" t="n">
         <v>0.9759891108642286</v>
@@ -7533,7 +7533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1193096232890105</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D355" t="n">
         <v>0.9759891108642286</v>
@@ -7553,7 +7553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C356" t="n">
-        <v>2.173780952926234</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D356" t="n">
         <v>0.9759891108642286</v>
@@ -7573,7 +7573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.659985200987163</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D357" t="n">
         <v>-1.024601595313405</v>
@@ -7593,7 +7593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.5177793231651965</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D358" t="n">
         <v>-1.024601595313405</v>
@@ -7613,7 +7613,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9811820970922992</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D359" t="n">
         <v>0.9759891108642286</v>
@@ -7633,7 +7633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.2440002119823204</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D360" t="n">
         <v>-1.024601595313405</v>
@@ -7653,7 +7653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C361" t="n">
-        <v>1.484096460176727</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D361" t="n">
         <v>-1.024601595313405</v>
@@ -7673,7 +7673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C362" t="n">
-        <v>-1.094144196170632</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D362" t="n">
         <v>0.9759891108642286</v>
@@ -7693,7 +7693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C363" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D363" t="n">
         <v>-1.024601595313405</v>
@@ -7713,7 +7713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C364" t="n">
-        <v>2.173780952926234</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D364" t="n">
         <v>0.9759891108642286</v>
@@ -7733,7 +7733,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C365" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D365" t="n">
         <v>0.9759891108642286</v>
@@ -7753,7 +7753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.07199739658786919</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D366" t="n">
         <v>-1.024601595313405</v>
@@ -7773,7 +7773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.53199685193549</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D367" t="n">
         <v>-1.024601595313405</v>
@@ -7793,7 +7793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C368" t="n">
-        <v>0.04710535085104881</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D368" t="n">
         <v>-1.024601595313405</v>
@@ -7813,7 +7813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.022519985766133</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D369" t="n">
         <v>0.9759891108642286</v>
@@ -7833,7 +7833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C370" t="n">
-        <v>0.4056390422603952</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D370" t="n">
         <v>-1.024601595313405</v>
@@ -7853,7 +7853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C371" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D371" t="n">
         <v>0.9759891108642286</v>
@@ -7873,7 +7873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.922826708515848</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D372" t="n">
         <v>0.9759891108642286</v>
@@ -7893,7 +7893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.7829707666126223</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D373" t="n">
         <v>0.9759891108642286</v>
@@ -7913,7 +7913,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C374" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D374" t="n">
         <v>0.9759891108642286</v>
@@ -7933,7 +7933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5292696875564298</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D375" t="n">
         <v>0.9759891108642286</v>
@@ -7953,7 +7953,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.7499301658576815</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D376" t="n">
         <v>-1.024601595313405</v>
@@ -7973,7 +7973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C377" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D377" t="n">
         <v>0.9759891108642286</v>
@@ -7993,7 +7993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.383086418240447</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D378" t="n">
         <v>0.9759891108642286</v>
@@ -8013,7 +8013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.2580879533723852</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D379" t="n">
         <v>0.9759891108642286</v>
@@ -8033,7 +8033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C380" t="n">
-        <v>1.745149191407197</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D380" t="n">
         <v>0.9759891108642286</v>
@@ -8053,7 +8053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C381" t="n">
-        <v>2.173780952926234</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D381" t="n">
         <v>0.9759891108642286</v>
@@ -8073,7 +8073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.9642188827650258</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D382" t="n">
         <v>-1.024601595313405</v>
@@ -8093,7 +8093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C383" t="n">
-        <v>0.4745498892752652</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D383" t="n">
         <v>0.9759891108642286</v>
@@ -8113,7 +8113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C384" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D384" t="n">
         <v>0.9759891108642286</v>
@@ -8133,7 +8133,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.7366030177821656</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D385" t="n">
         <v>-1.024601595313405</v>
@@ -8153,7 +8153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C386" t="n">
-        <v>0.6030324943328353</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D386" t="n">
         <v>0.9759891108642286</v>
@@ -8173,7 +8173,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C387" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D387" t="n">
         <v>0.9759891108642286</v>
@@ -8193,7 +8193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.3932130565202249</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D388" t="n">
         <v>-1.024601595313405</v>
@@ -8213,7 +8213,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6148635823146266</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D389" t="n">
         <v>0.9759891108642286</v>
@@ -8233,7 +8233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0260377425166224</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D390" t="n">
         <v>0.9759891108642286</v>
@@ -8253,7 +8253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.5373739751262688</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D391" t="n">
         <v>0.9759891108642286</v>
@@ -8273,7 +8273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C392" t="n">
-        <v>1.621848577302991</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D392" t="n">
         <v>-1.024601595313405</v>
@@ -8293,7 +8293,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.7738791055951357</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D393" t="n">
         <v>0.9759891108642286</v>
@@ -8313,7 +8313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C394" t="n">
-        <v>0.04764192731983983</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D394" t="n">
         <v>-1.024601595313405</v>
@@ -8333,7 +8333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C395" t="n">
-        <v>0.276871701201835</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D395" t="n">
         <v>-1.024601595313405</v>
@@ -8353,7 +8353,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.788182499887554</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D396" t="n">
         <v>-1.024601595313405</v>
@@ -8373,7 +8373,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.140415648486611</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D397" t="n">
         <v>-1.024601595313405</v>
@@ -8393,7 +8393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.1571017601997209</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D398" t="n">
         <v>0.9759891108642286</v>
@@ -8413,7 +8413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.8558972236694866</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D399" t="n">
         <v>0.9759891108642286</v>
@@ -8433,7 +8433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C400" t="n">
-        <v>-0.2166977176542516</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D400" t="n">
         <v>-1.024601595313405</v>
@@ -8453,7 +8453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.401698031689143</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D401" t="n">
         <v>-1.024601595313405</v>
@@ -8473,7 +8473,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8110222396908477</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D402" t="n">
         <v>0.9759891108642286</v>
@@ -8493,7 +8493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.5681231528611418</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D403" t="n">
         <v>0.9759891108642286</v>
@@ -8513,7 +8513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.03396294154842874</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D404" t="n">
         <v>-1.024601595313405</v>
@@ -8533,7 +8533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C405" t="n">
-        <v>1.465467639910022</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D405" t="n">
         <v>0.9759891108642286</v>
@@ -8553,7 +8553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.2112819973683899</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D406" t="n">
         <v>0.9759891108642286</v>
@@ -8573,7 +8573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C407" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D407" t="n">
         <v>0.9759891108642286</v>
@@ -8593,7 +8593,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C408" t="n">
-        <v>-0.4542459761399784</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D408" t="n">
         <v>-1.024601595313405</v>
@@ -8613,7 +8613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.3752516789372082</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D409" t="n">
         <v>0.9759891108642286</v>
@@ -8633,7 +8633,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C410" t="n">
-        <v>0.7304536073863669</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D410" t="n">
         <v>0.9759891108642286</v>
@@ -8653,7 +8653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C411" t="n">
-        <v>0.04090175403750502</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D411" t="n">
         <v>0.9759891108642286</v>
@@ -8673,7 +8673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.1756009953676968</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D412" t="n">
         <v>-1.024601595313405</v>
@@ -8693,7 +8693,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C413" t="n">
-        <v>-0.5240836046039096</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D413" t="n">
         <v>-1.024601595313405</v>
@@ -8713,7 +8713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C414" t="n">
-        <v>1.452814652445469</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D414" t="n">
         <v>0.9759891108642286</v>
@@ -8733,7 +8733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C415" t="n">
-        <v>2.173780952926234</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D415" t="n">
         <v>-1.024601595313405</v>
@@ -8753,7 +8753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C416" t="n">
-        <v>-1.077066238419002</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D416" t="n">
         <v>0.9759891108642286</v>
@@ -8773,7 +8773,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.2921713251768324</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D417" t="n">
         <v>0.9759891108642286</v>
@@ -8793,7 +8793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.3393471092746767</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D418" t="n">
         <v>0.9759891108642286</v>
@@ -8813,7 +8813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C419" t="n">
-        <v>-0.5669672429921374</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D419" t="n">
         <v>0.9759891108642286</v>
@@ -8833,7 +8833,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.5640962239793179</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D420" t="n">
         <v>-1.024601595313405</v>
@@ -8853,7 +8853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.2991882721050251</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D421" t="n">
         <v>-1.024601595313405</v>
@@ -8873,7 +8873,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.1037947792086277</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D422" t="n">
         <v>0.9759891108642286</v>
@@ -8893,7 +8893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.9135781504307964</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D423" t="n">
         <v>-1.024601595313405</v>
@@ -8913,7 +8913,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C424" t="n">
-        <v>-0.48859392520571</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D424" t="n">
         <v>-1.024601595313405</v>
@@ -8933,7 +8933,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.3040462061118497</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D425" t="n">
         <v>0.9759891108642286</v>
@@ -8953,7 +8953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.8734813462545524</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D426" t="n">
         <v>-1.024601595313405</v>
@@ -8973,7 +8973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C427" t="n">
-        <v>0.6351668243878937</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D427" t="n">
         <v>0.9759891108642286</v>
@@ -8993,7 +8993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C428" t="n">
-        <v>-0.1075097186236081</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D428" t="n">
         <v>-1.024601595313405</v>
@@ -9013,7 +9013,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C429" t="n">
-        <v>-0.2222775834281036</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D429" t="n">
         <v>0.9759891108642286</v>
@@ -9033,7 +9033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.1540069920666584</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D430" t="n">
         <v>0.9759891108642286</v>
@@ -9053,7 +9053,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C431" t="n">
-        <v>-0.7826978650709725</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D431" t="n">
         <v>0.9759891108642286</v>
@@ -9073,7 +9073,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C432" t="n">
-        <v>-0.7753938469803534</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D432" t="n">
         <v>0.9759891108642286</v>
@@ -9093,7 +9093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C433" t="n">
-        <v>-0.7762649167328898</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D433" t="n">
         <v>-1.024601595313405</v>
@@ -9113,7 +9113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C434" t="n">
-        <v>0.1464172084842603</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D434" t="n">
         <v>-1.024601595313405</v>
@@ -9133,7 +9133,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C435" t="n">
-        <v>-0.5006308742770363</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D435" t="n">
         <v>0.9759891108642286</v>
@@ -9153,7 +9153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.9794163067518338</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D436" t="n">
         <v>0.9759891108642286</v>
@@ -9173,7 +9173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C437" t="n">
-        <v>2.173780952926234</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D437" t="n">
         <v>-1.024601595313405</v>
@@ -9193,7 +9193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.5164811865952744</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D438" t="n">
         <v>-1.024601595313405</v>
@@ -9213,7 +9213,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.6892937080626422</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D439" t="n">
         <v>0.9759891108642286</v>
@@ -9233,7 +9233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C440" t="n">
-        <v>-0.8953100783966778</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D440" t="n">
         <v>0.9759891108642286</v>
@@ -9253,7 +9253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.594533218890031</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D441" t="n">
         <v>-1.024601595313405</v>
@@ -9273,7 +9273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.1593632078778656</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D442" t="n">
         <v>-1.024601595313405</v>
@@ -9293,7 +9293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C443" t="n">
-        <v>2.073281414090099</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D443" t="n">
         <v>0.9759891108642286</v>
@@ -9313,7 +9313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.85506276290219</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D444" t="n">
         <v>-1.024601595313405</v>
@@ -9333,7 +9333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C445" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D445" t="n">
         <v>0.9759891108642286</v>
@@ -9353,7 +9353,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C446" t="n">
-        <v>-0.5964444072263231</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D446" t="n">
         <v>-1.024601595313405</v>
@@ -9373,7 +9373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.7277054032263938</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D447" t="n">
         <v>-1.024601595313405</v>
@@ -9393,7 +9393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C448" t="n">
-        <v>-1.084219041172431</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D448" t="n">
         <v>0.9759891108642286</v>
@@ -9413,7 +9413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C449" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D449" t="n">
         <v>0.9759891108642286</v>
@@ -9433,7 +9433,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.586451433388862</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D450" t="n">
         <v>0.9759891108642286</v>
@@ -9453,7 +9453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C451" t="n">
-        <v>-1.000092282236576</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D451" t="n">
         <v>-1.024601595313405</v>
@@ -9473,7 +9473,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.9409828117901271</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D452" t="n">
         <v>0.9759891108642286</v>
@@ -9493,7 +9493,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C453" t="n">
-        <v>0.1767968853453584</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D453" t="n">
         <v>0.9759891108642286</v>
@@ -9513,7 +9513,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.6536945735497162</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D454" t="n">
         <v>-1.024601595313405</v>
@@ -9533,7 +9533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C455" t="n">
-        <v>-0.9896934712234949</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D455" t="n">
         <v>-1.024601595313405</v>
@@ -9553,7 +9553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.4196754182663825</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D456" t="n">
         <v>0.9759891108642286</v>
@@ -9573,7 +9573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.07044692376215532</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D457" t="n">
         <v>-1.024601595313405</v>
@@ -9593,7 +9593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C458" t="n">
-        <v>0.4281682980441056</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D458" t="n">
         <v>-1.024601595313405</v>
@@ -9613,7 +9613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.2502357623318705</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D459" t="n">
         <v>-1.024601595313405</v>
@@ -9633,7 +9633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C460" t="n">
-        <v>-0.1846706761203999</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D460" t="n">
         <v>-1.024601595313405</v>
@@ -9653,7 +9653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C461" t="n">
-        <v>1.616447163475392</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D461" t="n">
         <v>0.9759891108642286</v>
@@ -9673,7 +9673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C462" t="n">
-        <v>-1.027583047096267</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D462" t="n">
         <v>-1.024601595313405</v>
@@ -9693,7 +9693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C463" t="n">
-        <v>-0.7754641398016875</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D463" t="n">
         <v>0.9759891108642286</v>
@@ -9713,7 +9713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C464" t="n">
-        <v>-0.8044123428706207</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D464" t="n">
         <v>0.9759891108642286</v>
@@ -9733,7 +9733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C465" t="n">
-        <v>1.93771767441632</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D465" t="n">
         <v>0.9759891108642286</v>
@@ -9753,7 +9753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.546975484681963</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D466" t="n">
         <v>-1.024601595313405</v>
@@ -9773,7 +9773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C467" t="n">
-        <v>-1.078048270481757</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D467" t="n">
         <v>0.9759891108642286</v>
@@ -9793,7 +9793,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.5012018584323881</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D468" t="n">
         <v>0.9759891108642286</v>
@@ -9813,7 +9813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C469" t="n">
-        <v>-0.910412162352857</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D469" t="n">
         <v>-1.024601595313405</v>
@@ -9833,7 +9833,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C470" t="n">
-        <v>-0.1848518965467929</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D470" t="n">
         <v>-1.024601595313405</v>
@@ -9853,7 +9853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C471" t="n">
-        <v>2.173780952926234</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D471" t="n">
         <v>0.9759891108642286</v>
@@ -9873,7 +9873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C472" t="n">
-        <v>-1.049326587987935</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D472" t="n">
         <v>0.9759891108642286</v>
@@ -9893,7 +9893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C473" t="n">
-        <v>-1.045110327588189</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D473" t="n">
         <v>-1.024601595313405</v>
@@ -9913,7 +9913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C474" t="n">
-        <v>-1.08448983561512</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D474" t="n">
         <v>-1.024601595313405</v>
@@ -9933,7 +9933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C475" t="n">
-        <v>-1.084292740057262</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D475" t="n">
         <v>-1.024601595313405</v>
@@ -9953,7 +9953,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.8069423291560963</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D476" t="n">
         <v>0.9759891108642286</v>
@@ -9973,7 +9973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C477" t="n">
-        <v>-1.034408505828777</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D477" t="n">
         <v>-1.024601595313405</v>
@@ -9993,7 +9993,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C478" t="n">
-        <v>2.173780952926234</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D478" t="n">
         <v>-1.024601595313405</v>
@@ -10013,7 +10013,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C479" t="n">
-        <v>0.5053347439139553</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D479" t="n">
         <v>0.9759891108642286</v>
@@ -10033,7 +10033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C480" t="n">
-        <v>0.1040652035585554</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D480" t="n">
         <v>-1.024601595313405</v>
@@ -10053,7 +10053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C481" t="n">
-        <v>-0.5771094291833063</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D481" t="n">
         <v>0.9759891108642286</v>
@@ -10073,7 +10073,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C482" t="n">
-        <v>2.173780952926234</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D482" t="n">
         <v>0.9759891108642286</v>
@@ -10093,7 +10093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.8929118626433941</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D483" t="n">
         <v>-1.024601595313405</v>
@@ -10113,7 +10113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C484" t="n">
-        <v>2.115407116587408</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D484" t="n">
         <v>-1.024601595313405</v>
@@ -10133,7 +10133,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C485" t="n">
-        <v>0.6577201209312776</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D485" t="n">
         <v>0.9759891108642286</v>
@@ -10153,7 +10153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C486" t="n">
-        <v>0.08963791184723922</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D486" t="n">
         <v>-1.024601595313405</v>
@@ -10173,7 +10173,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.5077808659125572</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D487" t="n">
         <v>0.9759891108642286</v>
@@ -10193,7 +10193,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C488" t="n">
-        <v>-0.9307284684396819</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D488" t="n">
         <v>-1.024601595313405</v>
@@ -10213,7 +10213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C489" t="n">
-        <v>-1.051054964418384</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D489" t="n">
         <v>0.9759891108642286</v>
@@ -10233,7 +10233,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.6452871693698368</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D490" t="n">
         <v>0.9759891108642286</v>
@@ -10253,7 +10253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C491" t="n">
-        <v>2.173780952926234</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D491" t="n">
         <v>0.9759891108642286</v>
@@ -10273,7 +10273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C492" t="n">
-        <v>2.173780952926234</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D492" t="n">
         <v>0.9759891108642286</v>
@@ -10293,7 +10293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.7475212708310761</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D493" t="n">
         <v>0.9759891108642286</v>
@@ -10313,7 +10313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C494" t="n">
-        <v>-0.970918822851908</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D494" t="n">
         <v>0.9759891108642286</v>
@@ -10333,7 +10333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C495" t="n">
-        <v>1.502973672209968</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D495" t="n">
         <v>0.9759891108642286</v>
@@ -10353,7 +10353,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C496" t="n">
-        <v>-0.05181218676156882</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D496" t="n">
         <v>-1.024601595313405</v>
@@ -10373,7 +10373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C497" t="n">
-        <v>1.185270273561958</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D497" t="n">
         <v>-1.024601595313405</v>
@@ -10393,7 +10393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C498" t="n">
-        <v>-0.9208763231810042</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D498" t="n">
         <v>0.9759891108642286</v>
@@ -10413,7 +10413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C499" t="n">
-        <v>-0.7673767518962225</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D499" t="n">
         <v>0.9759891108642286</v>
@@ -10433,7 +10433,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C500" t="n">
-        <v>-0.6202222108651169</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D500" t="n">
         <v>-1.024601595313405</v>
@@ -10453,7 +10453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.4250135526895656</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D501" t="n">
         <v>-1.024601595313405</v>
@@ -10473,7 +10473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C502" t="n">
-        <v>-0.7259147905294615</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D502" t="n">
         <v>-1.024601595313405</v>
@@ -10493,7 +10493,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.7264385409629307</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D503" t="n">
         <v>-1.024601595313405</v>
@@ -10513,7 +10513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C504" t="n">
-        <v>-0.1973016684465295</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D504" t="n">
         <v>0.9759891108642286</v>
@@ -10533,7 +10533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C505" t="n">
-        <v>-0.709096253844012</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D505" t="n">
         <v>0.9759891108642286</v>
@@ -10553,7 +10553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C506" t="n">
-        <v>1.184559041891349</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D506" t="n">
         <v>-1.024601595313405</v>
@@ -10573,7 +10573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C507" t="n">
-        <v>-0.06150148053891222</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D507" t="n">
         <v>0.9759891108642286</v>
@@ -10593,7 +10593,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C508" t="n">
-        <v>-0.4184154474559913</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D508" t="n">
         <v>0.9759891108642286</v>
@@ -10613,7 +10613,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C509" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D509" t="n">
         <v>-1.024601595313405</v>
@@ -10633,7 +10633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C510" t="n">
-        <v>0.1891737962419685</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D510" t="n">
         <v>-1.024601595313405</v>
@@ -10653,7 +10653,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C511" t="n">
-        <v>-0.8436480327171836</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D511" t="n">
         <v>0.9759891108642286</v>
@@ -10673,7 +10673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C512" t="n">
-        <v>-0.5807336988905314</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D512" t="n">
         <v>0.9759891108642286</v>
@@ -10693,7 +10693,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C513" t="n">
-        <v>-0.8261750211787334</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D513" t="n">
         <v>-1.024601595313405</v>
@@ -10713,7 +10713,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C514" t="n">
-        <v>-0.4012748964705245</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D514" t="n">
         <v>-1.024601595313405</v>
@@ -10733,7 +10733,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C515" t="n">
-        <v>-0.2098485751294214</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D515" t="n">
         <v>0.9759891108642286</v>
@@ -10753,7 +10753,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C516" t="n">
-        <v>-0.1391476211213697</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D516" t="n">
         <v>-1.024601595313405</v>
@@ -10773,7 +10773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C517" t="n">
-        <v>1.378313594544532</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D517" t="n">
         <v>0.9759891108642286</v>
@@ -10793,7 +10793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C518" t="n">
-        <v>-0.984419055472888</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D518" t="n">
         <v>0.9759891108642286</v>
@@ -10813,7 +10813,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C519" t="n">
-        <v>-0.1302380134541006</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D519" t="n">
         <v>0.9759891108642286</v>
@@ -10833,7 +10833,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C520" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D520" t="n">
         <v>0.9759891108642286</v>
@@ -10853,7 +10853,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.7552940267197066</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D521" t="n">
         <v>-1.024601595313405</v>
@@ -10873,7 +10873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C522" t="n">
-        <v>-1.01186725197569</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D522" t="n">
         <v>0.9759891108642286</v>
@@ -10893,7 +10893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C523" t="n">
-        <v>-0.9618035177051406</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D523" t="n">
         <v>0.9759891108642286</v>
@@ -10913,7 +10913,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C524" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D524" t="n">
         <v>0.9759891108642286</v>
@@ -10933,7 +10933,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C525" t="n">
-        <v>-0.1005419984850209</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D525" t="n">
         <v>-1.024601595313405</v>
@@ -10953,7 +10953,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C526" t="n">
-        <v>0.1800546735276721</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D526" t="n">
         <v>-1.024601595313405</v>
@@ -10973,7 +10973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C527" t="n">
-        <v>0.7046605078658232</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D527" t="n">
         <v>0.9759891108642286</v>
@@ -10993,7 +10993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.7034653119913489</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D528" t="n">
         <v>-1.024601595313405</v>
@@ -11013,7 +11013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.2664163983568516</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D529" t="n">
         <v>-1.024601595313405</v>
@@ -11033,7 +11033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C530" t="n">
-        <v>1.063173992939817</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D530" t="n">
         <v>-1.024601595313405</v>
@@ -11053,7 +11053,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C531" t="n">
-        <v>-0.6309362141354622</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D531" t="n">
         <v>0.9759891108642286</v>
@@ -11073,7 +11073,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.692373870281496</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D532" t="n">
         <v>0.9759891108642286</v>
@@ -11093,7 +11093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C533" t="n">
-        <v>0.005484791863914399</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D533" t="n">
         <v>-1.024601595313405</v>
@@ -11113,7 +11113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C534" t="n">
-        <v>0.1309973888784243</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D534" t="n">
         <v>-1.024601595313405</v>
@@ -11133,7 +11133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C535" t="n">
-        <v>0.8073565062423771</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D535" t="n">
         <v>0.9759891108642286</v>
@@ -11153,7 +11153,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C536" t="n">
-        <v>0.08561260915002494</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D536" t="n">
         <v>-1.024601595313405</v>
@@ -11173,7 +11173,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C537" t="n">
-        <v>-0.572139575995441</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D537" t="n">
         <v>0.9759891108642286</v>
@@ -11193,7 +11193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C538" t="n">
-        <v>-0.9585938110421736</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D538" t="n">
         <v>-1.024601595313405</v>
@@ -11213,7 +11213,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C539" t="n">
-        <v>-0.6663339050298508</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D539" t="n">
         <v>-1.024601595313405</v>
@@ -11233,7 +11233,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C540" t="n">
-        <v>0.1428222795103303</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D540" t="n">
         <v>-1.024601595313405</v>
@@ -11253,7 +11253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C541" t="n">
-        <v>0.05411418668771201</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D541" t="n">
         <v>0.9759891108642286</v>
@@ -11273,7 +11273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C542" t="n">
-        <v>0.1148846103641665</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D542" t="n">
         <v>-1.024601595313405</v>
@@ -11293,7 +11293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C543" t="n">
-        <v>-0.7814091633465152</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D543" t="n">
         <v>0.9759891108642286</v>
@@ -11313,7 +11313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C544" t="n">
-        <v>0.7829614882012428</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D544" t="n">
         <v>-1.024601595313405</v>
@@ -11333,7 +11333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C545" t="n">
-        <v>-1.084624947758369</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D545" t="n">
         <v>0.9759891108642286</v>
@@ -11353,7 +11353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C546" t="n">
-        <v>-1.07477720013917</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D546" t="n">
         <v>-1.024601595313405</v>
@@ -11373,7 +11373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C547" t="n">
-        <v>1.342838147236395</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D547" t="n">
         <v>0.9759891108642286</v>
@@ -11393,7 +11393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C548" t="n">
-        <v>-0.4997700772516691</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D548" t="n">
         <v>0.9759891108642286</v>
@@ -11413,7 +11413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C549" t="n">
-        <v>-0.8176986479314553</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D549" t="n">
         <v>0.9759891108642286</v>
@@ -11433,7 +11433,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C550" t="n">
-        <v>-0.6059523764617952</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D550" t="n">
         <v>0.9759891108642286</v>
@@ -11453,7 +11453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.1947931795283345</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D551" t="n">
         <v>0.9759891108642286</v>
@@ -11473,7 +11473,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.8064437597946792</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D552" t="n">
         <v>0.9759891108642286</v>
@@ -11493,7 +11493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C553" t="n">
-        <v>-0.3644761731666056</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D553" t="n">
         <v>0.9759891108642286</v>
@@ -11513,7 +11513,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C554" t="n">
-        <v>-0.007097181903566026</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D554" t="n">
         <v>-1.024601595313405</v>
@@ -11533,7 +11533,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C555" t="n">
-        <v>-0.5916242671380362</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D555" t="n">
         <v>0.9759891108642286</v>
@@ -11553,7 +11553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C556" t="n">
-        <v>-0.371134977723892</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D556" t="n">
         <v>-1.024601595313405</v>
@@ -11573,7 +11573,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C557" t="n">
-        <v>-0.7994287067766114</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D557" t="n">
         <v>0.9759891108642286</v>
@@ -11593,7 +11593,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C558" t="n">
-        <v>-0.5256506020433565</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D558" t="n">
         <v>0.9759891108642286</v>
@@ -11613,7 +11613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C559" t="n">
-        <v>0.2432231205916699</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D559" t="n">
         <v>-1.024601595313405</v>
@@ -11633,7 +11633,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C560" t="n">
-        <v>1.734932228488105</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D560" t="n">
         <v>0.9759891108642286</v>
@@ -11653,7 +11653,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C561" t="n">
-        <v>0.03588766168722152</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D561" t="n">
         <v>0.9759891108642286</v>
@@ -11673,7 +11673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C562" t="n">
-        <v>0.7603393852089211</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D562" t="n">
         <v>-1.024601595313405</v>
@@ -11693,7 +11693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C563" t="n">
-        <v>-0.8913144238213128</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D563" t="n">
         <v>-1.024601595313405</v>
@@ -11713,7 +11713,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C564" t="n">
-        <v>-0.4413104857035459</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D564" t="n">
         <v>0.9759891108642286</v>
@@ -11733,7 +11733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C565" t="n">
-        <v>-0.1211057969789675</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D565" t="n">
         <v>0.9759891108642286</v>
@@ -11753,7 +11753,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C566" t="n">
-        <v>0.301967383688344</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D566" t="n">
         <v>-1.024601595313405</v>
@@ -11773,7 +11773,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.2957843702439459</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D567" t="n">
         <v>-1.024601595313405</v>
@@ -11793,7 +11793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C568" t="n">
-        <v>-1.076438903000617</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D568" t="n">
         <v>0.9759891108642286</v>
@@ -11813,7 +11813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C569" t="n">
-        <v>-0.7355821010672932</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D569" t="n">
         <v>-1.024601595313405</v>
@@ -11833,7 +11833,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C570" t="n">
-        <v>1.090351878889009</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D570" t="n">
         <v>0.9759891108642286</v>
@@ -11853,7 +11853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C571" t="n">
-        <v>1.344458949571755</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D571" t="n">
         <v>-1.024601595313405</v>
@@ -11873,7 +11873,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C572" t="n">
-        <v>-0.1019780979791397</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D572" t="n">
         <v>-1.024601595313405</v>
@@ -11893,7 +11893,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C573" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D573" t="n">
         <v>0.9759891108642286</v>
@@ -11913,7 +11913,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C574" t="n">
-        <v>1.35545604282696</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D574" t="n">
         <v>-1.024601595313405</v>
@@ -11933,7 +11933,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C575" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D575" t="n">
         <v>0.9759891108642286</v>
@@ -11953,7 +11953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C576" t="n">
-        <v>-0.7618277885878363</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D576" t="n">
         <v>-1.024601595313405</v>
@@ -11973,7 +11973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C577" t="n">
-        <v>-0.06791264395267951</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D577" t="n">
         <v>-1.024601595313405</v>
@@ -11993,7 +11993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C578" t="n">
-        <v>-0.3249122915016603</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D578" t="n">
         <v>0.9759891108642286</v>
@@ -12013,7 +12013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C579" t="n">
-        <v>-0.5299060743152944</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D579" t="n">
         <v>0.9759891108642286</v>
@@ -12033,7 +12033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C580" t="n">
-        <v>-0.8568314568120494</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D580" t="n">
         <v>-1.024601595313405</v>
@@ -12053,7 +12053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C581" t="n">
-        <v>-1.130734043994032</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D581" t="n">
         <v>0.9759891108642286</v>
@@ -12073,7 +12073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C582" t="n">
-        <v>-1.02620820220841</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D582" t="n">
         <v>-1.024601595313405</v>
@@ -12093,7 +12093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C583" t="n">
-        <v>1.624558780539967</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D583" t="n">
         <v>-1.024601595313405</v>
@@ -12113,7 +12113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C584" t="n">
-        <v>0.5421047313459283</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D584" t="n">
         <v>-1.024601595313405</v>
@@ -12133,7 +12133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C585" t="n">
-        <v>0.1872867329493083</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D585" t="n">
         <v>-1.024601595313405</v>
@@ -12153,7 +12153,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.4799239269165094</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D586" t="n">
         <v>0.9759891108642286</v>
@@ -12173,7 +12173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C587" t="n">
-        <v>-0.808303668779084</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D587" t="n">
         <v>-1.024601595313405</v>
@@ -12193,7 +12193,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C588" t="n">
-        <v>-0.7178479976571339</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D588" t="n">
         <v>-1.024601595313405</v>
@@ -12213,7 +12213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C589" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D589" t="n">
         <v>0.9759891108642286</v>
@@ -12233,7 +12233,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C590" t="n">
-        <v>0.3472716375312793</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D590" t="n">
         <v>-1.024601595313405</v>
@@ -12253,7 +12253,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C591" t="n">
-        <v>0.475450815380607</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D591" t="n">
         <v>0.9759891108642286</v>
@@ -12273,7 +12273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C592" t="n">
-        <v>-0.09010952346736517</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D592" t="n">
         <v>-1.024601595313405</v>
@@ -12293,7 +12293,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C593" t="n">
-        <v>-0.1069462952351159</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D593" t="n">
         <v>0.9759891108642286</v>
@@ -12313,7 +12313,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C594" t="n">
-        <v>0.5990503549380992</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D594" t="n">
         <v>-1.024601595313405</v>
@@ -12333,7 +12333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.336414954644713</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D595" t="n">
         <v>0.9759891108642286</v>
@@ -12353,7 +12353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C596" t="n">
-        <v>0.4860822749083657</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D596" t="n">
         <v>-1.024601595313405</v>
@@ -12373,7 +12373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C597" t="n">
-        <v>0.1702133166156741</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D597" t="n">
         <v>-1.024601595313405</v>
@@ -12393,7 +12393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.147178474322245</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D598" t="n">
         <v>-1.024601595313405</v>
@@ -12413,7 +12413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C599" t="n">
-        <v>-0.9511930200936323</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D599" t="n">
         <v>-1.024601595313405</v>
@@ -12433,7 +12433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8952460283028038</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D600" t="n">
         <v>0.9759891108642286</v>
@@ -12453,7 +12453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C601" t="n">
-        <v>1.186800726468604</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D601" t="n">
         <v>-1.024601595313405</v>
@@ -12473,7 +12473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.07269078088238679</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D602" t="n">
         <v>-1.024601595313405</v>
@@ -12493,7 +12493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C603" t="n">
-        <v>-0.4319072368074882</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D603" t="n">
         <v>-1.024601595313405</v>
@@ -12513,7 +12513,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.6314468708080947</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D604" t="n">
         <v>0.9759891108642286</v>
@@ -12533,7 +12533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C605" t="n">
-        <v>-0.5474854522092883</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D605" t="n">
         <v>-1.024601595313405</v>
@@ -12553,7 +12553,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C606" t="n">
-        <v>-0.5967969174456539</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D606" t="n">
         <v>0.9759891108642286</v>
@@ -12573,7 +12573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C607" t="n">
-        <v>1.511346177873176</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D607" t="n">
         <v>-1.024601595313405</v>
@@ -12593,7 +12593,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.4010788618989665</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D608" t="n">
         <v>-1.024601595313405</v>
@@ -12613,7 +12613,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.3570734387291405</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D609" t="n">
         <v>-1.024601595313405</v>
@@ -12633,7 +12633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C610" t="n">
-        <v>-0.8645740985381195</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D610" t="n">
         <v>0.9759891108642286</v>
@@ -12653,7 +12653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C611" t="n">
-        <v>-0.6241364372208748</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D611" t="n">
         <v>0.9759891108642286</v>
@@ -12673,7 +12673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C612" t="n">
-        <v>-0.02408831726224882</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D612" t="n">
         <v>0.9759891108642286</v>
@@ -12693,7 +12693,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C613" t="n">
-        <v>-0.6383833761347818</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D613" t="n">
         <v>-1.024601595313405</v>
@@ -12713,7 +12713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C614" t="n">
-        <v>-0.3397054648344189</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D614" t="n">
         <v>0.9759891108642286</v>
@@ -12733,7 +12733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C615" t="n">
-        <v>-1.081002849602544</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D615" t="n">
         <v>0.9759891108642286</v>
@@ -12753,7 +12753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C616" t="n">
-        <v>-0.712884411229472</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D616" t="n">
         <v>0.9759891108642286</v>
@@ -12773,7 +12773,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C617" t="n">
-        <v>0.2006718188094276</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D617" t="n">
         <v>-1.024601595313405</v>
@@ -12793,7 +12793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C618" t="n">
-        <v>-0.2587164538925482</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D618" t="n">
         <v>0.9759891108642286</v>
@@ -12813,7 +12813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C619" t="n">
-        <v>-0.5961151792110398</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D619" t="n">
         <v>-1.024601595313405</v>
@@ -12833,7 +12833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C620" t="n">
-        <v>-1.037461379876618</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D620" t="n">
         <v>0.9759891108642286</v>
@@ -12853,7 +12853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C621" t="n">
-        <v>-0.2315692552368342</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D621" t="n">
         <v>0.9759891108642286</v>
@@ -12873,7 +12873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C622" t="n">
-        <v>-0.6041526313500726</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D622" t="n">
         <v>-1.024601595313405</v>
@@ -12893,7 +12893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C623" t="n">
-        <v>2.173780952926234</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D623" t="n">
         <v>-1.024601595313405</v>
@@ -12913,7 +12913,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C624" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D624" t="n">
         <v>0.9759891108642286</v>
@@ -12933,7 +12933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C625" t="n">
-        <v>-0.9634332571148218</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D625" t="n">
         <v>-1.024601595313405</v>
@@ -12953,7 +12953,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C626" t="n">
-        <v>0.1539673952280661</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D626" t="n">
         <v>0.9759891108642286</v>
@@ -12973,7 +12973,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C627" t="n">
-        <v>-0.5578562611166498</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D627" t="n">
         <v>0.9759891108642286</v>
@@ -12993,7 +12993,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C628" t="n">
-        <v>0.7122012101853651</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D628" t="n">
         <v>-1.024601595313405</v>
@@ -13013,7 +13013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C629" t="n">
-        <v>0.04928305002178944</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D629" t="n">
         <v>-1.024601595313405</v>
@@ -13033,7 +13033,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C630" t="n">
-        <v>-0.3558449405404046</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D630" t="n">
         <v>0.9759891108642286</v>
@@ -13053,7 +13053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C631" t="n">
-        <v>-0.7105519567952866</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D631" t="n">
         <v>-1.024601595313405</v>
@@ -13073,7 +13073,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C632" t="n">
-        <v>-0.1145449353392614</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D632" t="n">
         <v>-1.024601595313405</v>
@@ -13093,7 +13093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C633" t="n">
-        <v>0.1245357344156748</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D633" t="n">
         <v>0.9759891108642286</v>
@@ -13113,7 +13113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C634" t="n">
-        <v>-0.2349136129602197</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D634" t="n">
         <v>-1.024601595313405</v>
@@ -13133,7 +13133,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C635" t="n">
-        <v>-1.063924202705607</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D635" t="n">
         <v>0.9759891108642286</v>
@@ -13153,7 +13153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C636" t="n">
-        <v>-0.1193967166171205</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D636" t="n">
         <v>0.9759891108642286</v>
@@ -13173,7 +13173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C637" t="n">
-        <v>-0.9619055112106056</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D637" t="n">
         <v>0.9759891108642286</v>
@@ -13193,7 +13193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C638" t="n">
-        <v>0.1737405110343027</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D638" t="n">
         <v>-1.024601595313405</v>
@@ -13213,7 +13213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C639" t="n">
-        <v>1.300145783855014</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D639" t="n">
         <v>-1.024601595313405</v>
@@ -13233,7 +13233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C640" t="n">
-        <v>0.6726358927183986</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D640" t="n">
         <v>0.9759891108642286</v>
@@ -13253,7 +13253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C641" t="n">
-        <v>0.4193916547665105</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D641" t="n">
         <v>-1.024601595313405</v>
@@ -13273,7 +13273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C642" t="n">
-        <v>2.173780952926234</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D642" t="n">
         <v>0.9759891108642286</v>
@@ -13293,7 +13293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C643" t="n">
-        <v>-0.7935259491579982</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D643" t="n">
         <v>-1.024601595313405</v>
@@ -13313,7 +13313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C644" t="n">
-        <v>-0.725173389168036</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D644" t="n">
         <v>0.9759891108642286</v>
@@ -13333,7 +13333,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C645" t="n">
-        <v>-0.3994640357920483</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D645" t="n">
         <v>-1.024601595313405</v>
@@ -13353,7 +13353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C646" t="n">
-        <v>2.173780952926234</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D646" t="n">
         <v>0.9759891108642286</v>
@@ -13373,7 +13373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C647" t="n">
-        <v>0.3226423031446662</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D647" t="n">
         <v>0.9759891108642286</v>
@@ -13393,7 +13393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C648" t="n">
-        <v>-0.8095853600613515</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D648" t="n">
         <v>0.9759891108642286</v>
@@ -13413,7 +13413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C649" t="n">
-        <v>1.041011506238052</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D649" t="n">
         <v>-1.024601595313405</v>
@@ -13433,7 +13433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C650" t="n">
-        <v>-0.850047133609135</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D650" t="n">
         <v>-1.024601595313405</v>
@@ -13453,7 +13453,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C651" t="n">
-        <v>-1.006440758216788</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D651" t="n">
         <v>0.9759891108642286</v>
@@ -13473,7 +13473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C652" t="n">
-        <v>-1.133356931033221</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D652" t="n">
         <v>0.9759891108642286</v>
@@ -13493,7 +13493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.3592232399096393</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D653" t="n">
         <v>0.9759891108642286</v>
@@ -13513,7 +13513,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C654" t="n">
-        <v>-0.3093335569711365</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D654" t="n">
         <v>-1.024601595313405</v>
@@ -13533,7 +13533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C655" t="n">
-        <v>1.151623076200287</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D655" t="n">
         <v>-1.024601595313405</v>
@@ -13553,7 +13553,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C656" t="n">
-        <v>2.173780952926234</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D656" t="n">
         <v>0.9759891108642286</v>
@@ -13573,7 +13573,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C657" t="n">
-        <v>-0.5944816916441483</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D657" t="n">
         <v>-1.024601595313405</v>
@@ -13593,7 +13593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C658" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D658" t="n">
         <v>-1.024601595313405</v>
@@ -13613,7 +13613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C659" t="n">
-        <v>0.6334538937365103</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D659" t="n">
         <v>-1.024601595313405</v>
@@ -13633,7 +13633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C660" t="n">
-        <v>-0.7595924144001273</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D660" t="n">
         <v>-1.024601595313405</v>
@@ -13653,7 +13653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C661" t="n">
-        <v>-1.071648480444498</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D661" t="n">
         <v>-1.024601595313405</v>
@@ -13673,7 +13673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C662" t="n">
-        <v>-0.9998189146542149</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D662" t="n">
         <v>0.9759891108642286</v>
@@ -13693,7 +13693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C663" t="n">
-        <v>2.098751981707963</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D663" t="n">
         <v>0.9759891108642286</v>
@@ -13713,7 +13713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C664" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D664" t="n">
         <v>-1.024601595313405</v>
@@ -13733,7 +13733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C665" t="n">
-        <v>-0.06770649728926148</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D665" t="n">
         <v>0.9759891108642286</v>
@@ -13753,7 +13753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C666" t="n">
-        <v>-0.1269541418655916</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D666" t="n">
         <v>-1.024601595313405</v>
@@ -13773,7 +13773,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C667" t="n">
-        <v>-0.6780258054911078</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D667" t="n">
         <v>0.9759891108642286</v>
@@ -13793,7 +13793,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C668" t="n">
-        <v>0.3821165892683773</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D668" t="n">
         <v>-1.024601595313405</v>
@@ -13813,7 +13813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C669" t="n">
-        <v>-0.6590769074722781</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D669" t="n">
         <v>-1.024601595313405</v>
@@ -13833,7 +13833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C670" t="n">
-        <v>0.4572966754267717</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D670" t="n">
         <v>0.9759891108642286</v>
@@ -13853,7 +13853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C671" t="n">
-        <v>-0.2916171036134493</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D671" t="n">
         <v>-1.024601595313405</v>
@@ -13873,7 +13873,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C672" t="n">
-        <v>1.647961278619189</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D672" t="n">
         <v>-1.024601595313405</v>
@@ -13893,7 +13893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C673" t="n">
-        <v>0.8459817333274576</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D673" t="n">
         <v>0.9759891108642286</v>
@@ -13913,7 +13913,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C674" t="n">
-        <v>-0.8253160139480129</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D674" t="n">
         <v>0.9759891108642286</v>
@@ -13933,7 +13933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C675" t="n">
-        <v>0.1988134814729535</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D675" t="n">
         <v>-1.024601595313405</v>
@@ -13953,7 +13953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C676" t="n">
-        <v>0.7335560800648063</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D676" t="n">
         <v>-1.024601595313405</v>
@@ -13973,7 +13973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C677" t="n">
-        <v>-0.1200009929360535</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D677" t="n">
         <v>0.9759891108642286</v>
@@ -13993,7 +13993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.5367709878561117</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D678" t="n">
         <v>-1.024601595313405</v>
@@ -14013,7 +14013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C679" t="n">
-        <v>-1.046997207439293</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D679" t="n">
         <v>-1.024601595313405</v>
@@ -14033,7 +14033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C680" t="n">
-        <v>0.08835885815708269</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D680" t="n">
         <v>-1.024601595313405</v>
@@ -14053,7 +14053,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C681" t="n">
-        <v>0.0344202581393642</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D681" t="n">
         <v>0.9759891108642286</v>
@@ -14073,7 +14073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C682" t="n">
-        <v>0.0162751316112013</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D682" t="n">
         <v>0.9759891108642286</v>
@@ -14093,7 +14093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C683" t="n">
-        <v>-0.7121030394402291</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D683" t="n">
         <v>-1.024601595313405</v>
@@ -14113,7 +14113,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C684" t="n">
-        <v>-0.5742121929015339</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D684" t="n">
         <v>-1.024601595313405</v>
@@ -14133,7 +14133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C685" t="n">
-        <v>2.173780952926234</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D685" t="n">
         <v>0.9759891108642286</v>
@@ -14153,7 +14153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C686" t="n">
-        <v>1.643487083525659</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D686" t="n">
         <v>-1.024601595313405</v>
@@ -14173,7 +14173,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C687" t="n">
-        <v>-0.7624113260951147</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D687" t="n">
         <v>0.9759891108642286</v>
@@ -14193,7 +14193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C688" t="n">
-        <v>-1.085884665716885</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D688" t="n">
         <v>-1.024601595313405</v>
@@ -14213,7 +14213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C689" t="n">
-        <v>-1.121762928868625</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D689" t="n">
         <v>0.9759891108642286</v>
@@ -14233,7 +14233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C690" t="n">
-        <v>-1.095842250207564</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D690" t="n">
         <v>0.9759891108642286</v>
@@ -14253,7 +14253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C691" t="n">
-        <v>-1.082844196284574</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D691" t="n">
         <v>0.9759891108642286</v>
@@ -14273,7 +14273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C692" t="n">
-        <v>0.648581320391627</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D692" t="n">
         <v>-1.024601595313405</v>
@@ -14293,7 +14293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C693" t="n">
-        <v>1.22441593425885</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D693" t="n">
         <v>-1.024601595313405</v>
@@ -14313,7 +14313,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C694" t="n">
-        <v>2.173780952926234</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D694" t="n">
         <v>-1.024601595313405</v>
@@ -14333,7 +14333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C695" t="n">
-        <v>0.173226408635134</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D695" t="n">
         <v>-1.024601595313405</v>
@@ -14353,7 +14353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C696" t="n">
-        <v>0.6913641948286066</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D696" t="n">
         <v>-1.024601595313405</v>
@@ -14373,7 +14373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.3178535298143244</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D697" t="n">
         <v>0.9759891108642286</v>
@@ -14393,7 +14393,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C698" t="n">
-        <v>-0.5348070675091191</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D698" t="n">
         <v>0.9759891108642286</v>
@@ -14413,7 +14413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C699" t="n">
-        <v>-0.9582549746556286</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D699" t="n">
         <v>0.9759891108642286</v>
@@ -14433,7 +14433,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C700" t="n">
-        <v>-0.6018845996074101</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D700" t="n">
         <v>-1.024601595313405</v>
@@ -14453,7 +14453,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C701" t="n">
-        <v>-0.4891588111687751</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D701" t="n">
         <v>-1.024601595313405</v>
@@ -14473,7 +14473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C702" t="n">
-        <v>-0.8538256677496939</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D702" t="n">
         <v>-1.024601595313405</v>
@@ -14493,7 +14493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C703" t="n">
-        <v>0.4476186558683389</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D703" t="n">
         <v>-1.024601595313405</v>
@@ -14513,7 +14513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C704" t="n">
-        <v>-0.6846475796433622</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D704" t="n">
         <v>-1.024601595313405</v>
@@ -14533,7 +14533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C705" t="n">
-        <v>-0.6395041495088791</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D705" t="n">
         <v>0.9759891108642286</v>
@@ -14553,7 +14553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C706" t="n">
-        <v>-0.1175553203562916</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D706" t="n">
         <v>0.9759891108642286</v>
@@ -14573,7 +14573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C707" t="n">
-        <v>0.8241899056602146</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D707" t="n">
         <v>-1.024601595313405</v>
@@ -14593,7 +14593,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C708" t="n">
-        <v>-0.392900278750476</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D708" t="n">
         <v>0.9759891108642286</v>
@@ -14613,7 +14613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C709" t="n">
-        <v>-0.879868761423561</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D709" t="n">
         <v>0.9759891108642286</v>
@@ -14633,7 +14633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C710" t="n">
-        <v>-0.1023299438425629</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D710" t="n">
         <v>0.9759891108642286</v>
@@ -14653,7 +14653,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C711" t="n">
-        <v>2.1553194578838</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D711" t="n">
         <v>0.9759891108642286</v>
@@ -14673,7 +14673,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C712" t="n">
-        <v>0.3488623980891248</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D712" t="n">
         <v>-1.024601595313405</v>
@@ -14693,7 +14693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C713" t="n">
-        <v>0.01728335119562981</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D713" t="n">
         <v>0.9759891108642286</v>
@@ -14713,7 +14713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C714" t="n">
-        <v>0.08199246439888337</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D714" t="n">
         <v>0.9759891108642286</v>
@@ -14733,7 +14733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C715" t="n">
-        <v>-0.5830897429173185</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D715" t="n">
         <v>-1.024601595313405</v>
@@ -14753,7 +14753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C716" t="n">
-        <v>-0.9079406740924147</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D716" t="n">
         <v>-1.024601595313405</v>
@@ -14773,7 +14773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C717" t="n">
-        <v>-1.037644692528332</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D717" t="n">
         <v>0.9759891108642286</v>
@@ -14793,7 +14793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C718" t="n">
-        <v>-0.6015524315693416</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D718" t="n">
         <v>-1.024601595313405</v>
@@ -14813,7 +14813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C719" t="n">
-        <v>0.4951448678759525</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D719" t="n">
         <v>0.9759891108642286</v>
@@ -14833,7 +14833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C720" t="n">
-        <v>0.1828532033783585</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D720" t="n">
         <v>0.9759891108642286</v>
@@ -14853,7 +14853,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C721" t="n">
-        <v>-0.9008465428898161</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D721" t="n">
         <v>0.9759891108642286</v>
@@ -14873,7 +14873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C722" t="n">
-        <v>-0.5082632676275947</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D722" t="n">
         <v>0.9759891108642286</v>
@@ -14893,7 +14893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C723" t="n">
-        <v>1.199861809918864</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D723" t="n">
         <v>-1.024601595313405</v>
@@ -14913,7 +14913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C724" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D724" t="n">
         <v>-1.024601595313405</v>
@@ -14933,7 +14933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C725" t="n">
-        <v>-0.03302321011704806</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D725" t="n">
         <v>-1.024601595313405</v>
@@ -14953,7 +14953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C726" t="n">
-        <v>-1.085278217846552</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D726" t="n">
         <v>-1.024601595313405</v>
@@ -14973,7 +14973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C727" t="n">
-        <v>-1.13291725632723</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D727" t="n">
         <v>0.9759891108642286</v>
@@ -14993,7 +14993,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C728" t="n">
-        <v>-0.9096231455127962</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D728" t="n">
         <v>-1.024601595313405</v>
@@ -15013,7 +15013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C729" t="n">
-        <v>-1.083904790912349</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D729" t="n">
         <v>0.9759891108642286</v>
@@ -15033,7 +15033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C730" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D730" t="n">
         <v>0.9759891108642286</v>
@@ -15053,7 +15053,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C731" t="n">
-        <v>-0.5376327913311002</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D731" t="n">
         <v>-1.024601595313405</v>
@@ -15073,7 +15073,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C732" t="n">
-        <v>1.345915131454228</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D732" t="n">
         <v>-1.024601595313405</v>
@@ -15093,7 +15093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C733" t="n">
-        <v>0.5137990348078979</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D733" t="n">
         <v>-1.024601595313405</v>
@@ -15113,7 +15113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C734" t="n">
-        <v>-1.083525071848084</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D734" t="n">
         <v>0.9759891108642286</v>
@@ -15133,7 +15133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C735" t="n">
-        <v>0.8704035209453668</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D735" t="n">
         <v>-1.024601595313405</v>
@@ -15153,7 +15153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C736" t="n">
-        <v>-0.8626721368163359</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D736" t="n">
         <v>0.9759891108642286</v>
@@ -15173,7 +15173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C737" t="n">
-        <v>-0.1837610043149006</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D737" t="n">
         <v>-1.024601595313405</v>
@@ -15193,7 +15193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C738" t="n">
-        <v>0.8592319856771783</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D738" t="n">
         <v>0.9759891108642286</v>
@@ -15213,7 +15213,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C739" t="n">
-        <v>-1.026025365513167</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D739" t="n">
         <v>-1.024601595313405</v>
@@ -15233,7 +15233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C740" t="n">
-        <v>1.090873033376559</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D740" t="n">
         <v>0.9759891108642286</v>
@@ -15253,7 +15253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C741" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D741" t="n">
         <v>0.9759891108642286</v>
@@ -15273,7 +15273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C742" t="n">
-        <v>-0.100411150118492</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D742" t="n">
         <v>0.9759891108642286</v>
@@ -15293,7 +15293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C743" t="n">
-        <v>-0.4089456291064105</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D743" t="n">
         <v>0.9759891108642286</v>
@@ -15313,7 +15313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C744" t="n">
-        <v>1.55885977802588</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D744" t="n">
         <v>-1.024601595313405</v>
@@ -15333,7 +15333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C745" t="n">
-        <v>-1.050467227586823</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D745" t="n">
         <v>0.9759891108642286</v>
@@ -15353,7 +15353,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C746" t="n">
-        <v>-0.3316289198123125</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D746" t="n">
         <v>0.9759891108642286</v>
@@ -15373,7 +15373,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.3153910004428757</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D747" t="n">
         <v>0.9759891108642286</v>
@@ -15393,7 +15393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C748" t="n">
-        <v>-0.09014880474987541</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D748" t="n">
         <v>-1.024601595313405</v>
@@ -15413,7 +15413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C749" t="n">
-        <v>0.6219003964591858</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D749" t="n">
         <v>-1.024601595313405</v>
@@ -15433,7 +15433,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C750" t="n">
-        <v>-0.4460783647797238</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D750" t="n">
         <v>0.9759891108642286</v>
@@ -15453,7 +15453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C751" t="n">
-        <v>0.007867301053649934</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D751" t="n">
         <v>-1.024601595313405</v>
@@ -15473,7 +15473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C752" t="n">
-        <v>0.07786193565850424</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D752" t="n">
         <v>0.9759891108642286</v>
@@ -15493,7 +15493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C753" t="n">
-        <v>1.263527928968015</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D753" t="n">
         <v>0.9759891108642286</v>
@@ -15513,7 +15513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C754" t="n">
-        <v>-0.4405033874754609</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D754" t="n">
         <v>0.9759891108642286</v>
@@ -15533,7 +15533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C755" t="n">
-        <v>-1.063400452272138</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D755" t="n">
         <v>0.9759891108642286</v>
@@ -15553,7 +15553,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C756" t="n">
-        <v>-0.2431202279617095</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D756" t="n">
         <v>-1.024601595313405</v>
@@ -15573,7 +15573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C757" t="n">
-        <v>0.05550959686142679</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D757" t="n">
         <v>-1.024601595313405</v>
@@ -15593,7 +15593,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C758" t="n">
-        <v>0.06516552410698997</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D758" t="n">
         <v>-1.024601595313405</v>
@@ -15613,7 +15613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C759" t="n">
-        <v>-1.02684979648941</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D759" t="n">
         <v>-1.024601595313405</v>
@@ -15633,7 +15633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C760" t="n">
-        <v>-0.4505453699558116</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D760" t="n">
         <v>-1.024601595313405</v>
@@ -15653,7 +15653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C761" t="n">
-        <v>-0.5852459595944184</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D761" t="n">
         <v>0.9759891108642286</v>
@@ -15673,7 +15673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C762" t="n">
-        <v>-0.08159991259318466</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D762" t="n">
         <v>0.9759891108642286</v>
@@ -15693,7 +15693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C763" t="n">
-        <v>-0.9984998905362411</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D763" t="n">
         <v>0.9759891108642286</v>
@@ -15713,7 +15713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C764" t="n">
-        <v>-0.7510681579486987</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D764" t="n">
         <v>-1.024601595313405</v>
@@ -15733,7 +15733,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C765" t="n">
-        <v>-0.4005306195387524</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D765" t="n">
         <v>-1.024601595313405</v>
@@ -15753,7 +15753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C766" t="n">
-        <v>-1.08430790125402</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D766" t="n">
         <v>-1.024601595313405</v>
@@ -15773,7 +15773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C767" t="n">
-        <v>-0.9983634397654162</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D767" t="n">
         <v>0.9759891108642286</v>
@@ -15793,7 +15793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C768" t="n">
-        <v>-0.7607482300694133</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D768" t="n">
         <v>0.9759891108642286</v>
@@ -15813,7 +15813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C769" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D769" t="n">
         <v>0.9759891108642286</v>
@@ -15833,7 +15833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C770" t="n">
-        <v>-0.7735129165851391</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D770" t="n">
         <v>-1.024601595313405</v>
@@ -15853,7 +15853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C771" t="n">
-        <v>-1.084926104257614</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D771" t="n">
         <v>0.9759891108642286</v>
@@ -15873,7 +15873,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C772" t="n">
-        <v>-0.7838982520806306</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D772" t="n">
         <v>0.9759891108642286</v>
@@ -15893,7 +15893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C773" t="n">
-        <v>0.8137628218411707</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D773" t="n">
         <v>0.9759891108642286</v>
@@ -15913,7 +15913,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C774" t="n">
-        <v>-0.7567867154550941</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D774" t="n">
         <v>-1.024601595313405</v>
@@ -15933,7 +15933,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C775" t="n">
-        <v>-0.3993269454547153</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D775" t="n">
         <v>-1.024601595313405</v>
@@ -15953,7 +15953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C776" t="n">
-        <v>0.08768073917480129</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D776" t="n">
         <v>-1.024601595313405</v>
@@ -15973,7 +15973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C777" t="n">
-        <v>-0.371025879576519</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D777" t="n">
         <v>-1.024601595313405</v>
@@ -15993,7 +15993,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C778" t="n">
-        <v>-0.7078006110876836</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D778" t="n">
         <v>0.9759891108642286</v>
@@ -16013,7 +16013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C779" t="n">
-        <v>1.180928609539398</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D779" t="n">
         <v>0.9759891108642286</v>
@@ -16033,7 +16033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C780" t="n">
-        <v>-0.8147136522174334</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D780" t="n">
         <v>-1.024601595313405</v>
@@ -16053,7 +16053,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C781" t="n">
-        <v>-0.2087154615922334</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D781" t="n">
         <v>0.9759891108642286</v>
@@ -16073,7 +16073,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C782" t="n">
-        <v>-0.5443431082606297</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D782" t="n">
         <v>-1.024601595313405</v>
@@ -16093,7 +16093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C783" t="n">
-        <v>-0.9135966234913333</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D783" t="n">
         <v>-1.024601595313405</v>
@@ -16113,7 +16113,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C784" t="n">
-        <v>-0.08301336449188425</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D784" t="n">
         <v>-1.024601595313405</v>
@@ -16133,7 +16133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C785" t="n">
-        <v>-0.8756013456189249</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D785" t="n">
         <v>-1.024601595313405</v>
@@ -16153,7 +16153,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C786" t="n">
-        <v>-0.1311348046875993</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D786" t="n">
         <v>0.9759891108642286</v>
@@ -16173,7 +16173,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C787" t="n">
-        <v>2.173780952926234</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D787" t="n">
         <v>0.9759891108642286</v>
@@ -16193,7 +16193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C788" t="n">
-        <v>-0.9742152329187042</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D788" t="n">
         <v>-1.024601595313405</v>
@@ -16213,7 +16213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C789" t="n">
-        <v>-1.008600752798378</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D789" t="n">
         <v>0.9759891108642286</v>
@@ -16233,7 +16233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C790" t="n">
-        <v>-0.2907625634325257</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D790" t="n">
         <v>-1.024601595313405</v>
@@ -16253,7 +16253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C791" t="n">
-        <v>-0.05300366446103257</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D791" t="n">
         <v>-1.024601595313405</v>
@@ -16273,7 +16273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C792" t="n">
-        <v>1.284115488597208</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D792" t="n">
         <v>0.9759891108642286</v>
@@ -16293,7 +16293,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C793" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D793" t="n">
         <v>-1.024601595313405</v>
@@ -16313,7 +16313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C794" t="n">
-        <v>-0.0009182307110443632</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D794" t="n">
         <v>0.9759891108642286</v>
@@ -16333,7 +16333,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C795" t="n">
-        <v>-0.242781589890361</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D795" t="n">
         <v>-1.024601595313405</v>
@@ -16353,7 +16353,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C796" t="n">
-        <v>0.8830592134291978</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D796" t="n">
         <v>0.9759891108642286</v>
@@ -16373,7 +16373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C797" t="n">
-        <v>-0.8932359741266124</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D797" t="n">
         <v>-1.024601595313405</v>
@@ -16393,7 +16393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C798" t="n">
-        <v>-0.08239863200422538</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D798" t="n">
         <v>0.9759891108642286</v>
@@ -16413,7 +16413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C799" t="n">
-        <v>1.220284893865264</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D799" t="n">
         <v>-1.024601595313405</v>
@@ -16433,7 +16433,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C800" t="n">
-        <v>-0.7570899393902605</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D800" t="n">
         <v>-1.024601595313405</v>
@@ -16453,7 +16453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C801" t="n">
-        <v>0.1843546229402638</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D801" t="n">
         <v>-1.024601595313405</v>
@@ -16473,7 +16473,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C802" t="n">
-        <v>-0.5470370318031395</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D802" t="n">
         <v>-1.024601595313405</v>
@@ -16493,7 +16493,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C803" t="n">
-        <v>-0.1045577820528119</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D803" t="n">
         <v>-1.024601595313405</v>
@@ -16513,7 +16513,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C804" t="n">
-        <v>-0.4118414226451296</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D804" t="n">
         <v>0.9759891108642286</v>
@@ -16533,7 +16533,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C805" t="n">
-        <v>-0.1624217934033604</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D805" t="n">
         <v>-1.024601595313405</v>
@@ -16553,7 +16553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C806" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D806" t="n">
         <v>0.9759891108642286</v>
@@ -16573,7 +16573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C807" t="n">
-        <v>0.2926452704969789</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D807" t="n">
         <v>0.9759891108642286</v>
@@ -16593,7 +16593,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C808" t="n">
-        <v>-0.1754622867783619</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D808" t="n">
         <v>-1.024601595313405</v>
@@ -16613,7 +16613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C809" t="n">
-        <v>-1.056756055313864</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D809" t="n">
         <v>0.9759891108642286</v>
@@ -16633,7 +16633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C810" t="n">
-        <v>-0.9219692283121392</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D810" t="n">
         <v>0.9759891108642286</v>
@@ -16653,7 +16653,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C811" t="n">
-        <v>1.370892929438591</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D811" t="n">
         <v>-1.024601595313405</v>
@@ -16673,7 +16673,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C812" t="n">
-        <v>0.4173978046900899</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D812" t="n">
         <v>-1.024601595313405</v>
@@ -16693,7 +16693,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C813" t="n">
-        <v>1.333876429276567</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D813" t="n">
         <v>-1.024601595313405</v>
@@ -16713,7 +16713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C814" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D814" t="n">
         <v>-1.024601595313405</v>
@@ -16733,7 +16733,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C815" t="n">
-        <v>1.576809420307155</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D815" t="n">
         <v>0.9759891108642286</v>
@@ -16753,7 +16753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C816" t="n">
-        <v>-0.9211447973358963</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D816" t="n">
         <v>0.9759891108642286</v>
@@ -16773,7 +16773,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C817" t="n">
-        <v>-0.06819678500808052</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D817" t="n">
         <v>-1.024601595313405</v>
@@ -16793,7 +16793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C818" t="n">
-        <v>-0.7781235416263986</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D818" t="n">
         <v>-1.024601595313405</v>
@@ -16813,7 +16813,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C819" t="n">
-        <v>-0.05748140344712087</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D819" t="n">
         <v>0.9759891108642286</v>
@@ -16833,7 +16833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C820" t="n">
-        <v>0.1869090515736852</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D820" t="n">
         <v>-1.024601595313405</v>
@@ -16853,7 +16853,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C821" t="n">
-        <v>-0.6584083968612583</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D821" t="n">
         <v>0.9759891108642286</v>
@@ -16873,7 +16873,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C822" t="n">
-        <v>2.173780952926234</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D822" t="n">
         <v>0.9759891108642286</v>
@@ -16893,7 +16893,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C823" t="n">
-        <v>-0.3313459438586898</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D823" t="n">
         <v>0.9759891108642286</v>
@@ -16913,7 +16913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C824" t="n">
-        <v>-1.017809672633566</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D824" t="n">
         <v>0.9759891108642286</v>
@@ -16933,7 +16933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C825" t="n">
-        <v>-0.9424292484638539</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D825" t="n">
         <v>0.9759891108642286</v>
@@ -16953,7 +16953,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C826" t="n">
-        <v>0.9235493460500541</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D826" t="n">
         <v>-1.024601595313405</v>
@@ -16973,7 +16973,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C827" t="n">
-        <v>-1.027844709124166</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D827" t="n">
         <v>-1.024601595313405</v>
@@ -16993,7 +16993,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C828" t="n">
-        <v>-0.1266992523016471</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D828" t="n">
         <v>0.9759891108642286</v>
@@ -17013,7 +17013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C829" t="n">
-        <v>-0.1283629046014743</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D829" t="n">
         <v>0.9759891108642286</v>
@@ -17033,7 +17033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C830" t="n">
-        <v>-0.7068069131335055</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D830" t="n">
         <v>0.9759891108642286</v>
@@ -17053,7 +17053,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C831" t="n">
-        <v>0.7536443911030349</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D831" t="n">
         <v>-1.024601595313405</v>
@@ -17073,7 +17073,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C832" t="n">
-        <v>0.03790693676338548</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D832" t="n">
         <v>0.9759891108642286</v>
@@ -17093,7 +17093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C833" t="n">
-        <v>-0.4798843432033248</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D833" t="n">
         <v>-1.024601595313405</v>
@@ -17113,7 +17113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C834" t="n">
-        <v>2.141745357810072</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D834" t="n">
         <v>-1.024601595313405</v>
@@ -17133,7 +17133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C835" t="n">
-        <v>-0.8437071653508449</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D835" t="n">
         <v>0.9759891108642286</v>
@@ -17153,7 +17153,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C836" t="n">
-        <v>-0.5473641626352217</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D836" t="n">
         <v>-1.024601595313405</v>
@@ -17173,7 +17173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C837" t="n">
-        <v>0.870786199863937</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D837" t="n">
         <v>-1.024601595313405</v>
@@ -17193,7 +17193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C838" t="n">
-        <v>2.173780952926234</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D838" t="n">
         <v>0.9759891108642286</v>
@@ -17213,7 +17213,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C839" t="n">
-        <v>-0.9802637175014497</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D839" t="n">
         <v>0.9759891108642286</v>
@@ -17233,7 +17233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C840" t="n">
-        <v>-0.8787853159272903</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D840" t="n">
         <v>0.9759891108642286</v>
@@ -17253,7 +17253,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C841" t="n">
-        <v>-0.5863265146467028</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D841" t="n">
         <v>0.9759891108642286</v>
@@ -17273,7 +17273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C842" t="n">
-        <v>-0.4898259038261412</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D842" t="n">
         <v>-1.024601595313405</v>
@@ -17293,7 +17293,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C843" t="n">
-        <v>-0.6180019185480876</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D843" t="n">
         <v>-1.024601595313405</v>
@@ -17313,7 +17313,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C844" t="n">
-        <v>-0.5876397330873045</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D844" t="n">
         <v>0.9759891108642286</v>
@@ -17333,7 +17333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C845" t="n">
-        <v>-0.1102221598475738</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D845" t="n">
         <v>-1.024601595313405</v>
@@ -17353,7 +17353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C846" t="n">
-        <v>0.167352500919705</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D846" t="n">
         <v>-1.024601595313405</v>
@@ -17373,7 +17373,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C847" t="n">
-        <v>1.822053209752491</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D847" t="n">
         <v>-1.024601595313405</v>
@@ -17393,7 +17393,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C848" t="n">
-        <v>-0.8632319359946153</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D848" t="n">
         <v>0.9759891108642286</v>
@@ -17413,7 +17413,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C849" t="n">
-        <v>0.1267166264610763</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D849" t="n">
         <v>-1.024601595313405</v>
@@ -17433,7 +17433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C850" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D850" t="n">
         <v>0.9759891108642286</v>
@@ -17453,7 +17453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C851" t="n">
-        <v>-0.4736987137465672</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D851" t="n">
         <v>0.9759891108642286</v>
@@ -17473,7 +17473,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C852" t="n">
-        <v>-0.2278052228950061</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D852" t="n">
         <v>0.9759891108642286</v>
@@ -17493,7 +17493,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C853" t="n">
-        <v>0.8346321100214016</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D853" t="n">
         <v>0.9759891108642286</v>
@@ -17513,7 +17513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C854" t="n">
-        <v>2.173780952926234</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D854" t="n">
         <v>0.9759891108642286</v>
@@ -17533,7 +17533,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C855" t="n">
-        <v>-0.6108559130480127</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D855" t="n">
         <v>0.9759891108642286</v>
@@ -17553,7 +17553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C856" t="n">
-        <v>-0.7122817115163496</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D856" t="n">
         <v>-1.024601595313405</v>
@@ -17573,7 +17573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C857" t="n">
-        <v>-1.049611309115285</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D857" t="n">
         <v>0.9759891108642286</v>
@@ -17593,7 +17593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C858" t="n">
-        <v>-1.050798017334278</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D858" t="n">
         <v>0.9759891108642286</v>
@@ -17613,7 +17613,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C859" t="n">
-        <v>-0.8236150694670946</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D859" t="n">
         <v>0.9759891108642286</v>
@@ -17633,7 +17633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C860" t="n">
-        <v>0.7170273265020931</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D860" t="n">
         <v>-1.024601595313405</v>
@@ -17653,7 +17653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C861" t="n">
-        <v>-0.1460832092402738</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D861" t="n">
         <v>-1.024601595313405</v>
@@ -17673,7 +17673,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C862" t="n">
-        <v>-0.9046942543287297</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D862" t="n">
         <v>0.9759891108642286</v>
@@ -17693,7 +17693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C863" t="n">
-        <v>1.423868283792102</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D863" t="n">
         <v>0.9759891108642286</v>
@@ -17713,7 +17713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C864" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D864" t="n">
         <v>0.9759891108642286</v>
@@ -17733,7 +17733,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C865" t="n">
-        <v>-0.6328799360797099</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D865" t="n">
         <v>-1.024601595313405</v>
@@ -17753,7 +17753,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C866" t="n">
-        <v>-1.084080483302645</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D866" t="n">
         <v>-1.024601595313405</v>
@@ -17773,7 +17773,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C867" t="n">
-        <v>1.219933072791241</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D867" t="n">
         <v>0.9759891108642286</v>
@@ -17793,7 +17793,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C868" t="n">
-        <v>-0.737896132019741</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D868" t="n">
         <v>0.9759891108642286</v>
@@ -17813,7 +17813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C869" t="n">
-        <v>-1.073123251401899</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D869" t="n">
         <v>-1.024601595313405</v>
@@ -17833,7 +17833,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C870" t="n">
-        <v>-0.5850915662562067</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D870" t="n">
         <v>0.9759891108642286</v>
@@ -17853,7 +17853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C871" t="n">
-        <v>0.0571614831206565</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D871" t="n">
         <v>0.9759891108642286</v>
@@ -17873,7 +17873,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C872" t="n">
-        <v>-0.574784183506507</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D872" t="n">
         <v>-1.024601595313405</v>
@@ -17893,7 +17893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C873" t="n">
-        <v>0.08167545755757301</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D873" t="n">
         <v>0.9759891108642286</v>
@@ -17913,7 +17913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C874" t="n">
-        <v>0.08963239868478169</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D874" t="n">
         <v>-1.024601595313405</v>
@@ -17933,7 +17933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C875" t="n">
-        <v>2.173780952926234</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D875" t="n">
         <v>-1.024601595313405</v>
@@ -17953,7 +17953,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C876" t="n">
-        <v>-0.7132903178154107</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D876" t="n">
         <v>0.9759891108642286</v>
@@ -17973,7 +17973,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C877" t="n">
-        <v>2.173780952926234</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D877" t="n">
         <v>0.9759891108642286</v>
@@ -17993,7 +17993,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C878" t="n">
-        <v>0.2107895923999302</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D878" t="n">
         <v>-1.024601595313405</v>
@@ -18013,7 +18013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C879" t="n">
-        <v>0.738007001878473</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D879" t="n">
         <v>0.9759891108642286</v>
@@ -18033,7 +18033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C880" t="n">
-        <v>-0.1250308959653633</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D880" t="n">
         <v>-1.024601595313405</v>
@@ -18053,7 +18053,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C881" t="n">
-        <v>0.1812137366082981</v>
+        <v>1.254177264315741</v>
       </c>
       <c r="D881" t="n">
         <v>-1.024601595313405</v>
@@ -18073,7 +18073,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C882" t="n">
-        <v>-0.1389642142699372</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D882" t="n">
         <v>0.9759891108642286</v>
@@ -18093,7 +18093,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C883" t="n">
-        <v>-0.8512569554642577</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D883" t="n">
         <v>-1.024601595313405</v>
@@ -18113,7 +18113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C884" t="n">
-        <v>-1.021848480595649</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D884" t="n">
         <v>-1.024601595313405</v>
@@ -18133,7 +18133,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C885" t="n">
-        <v>-0.80632692239677</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D885" t="n">
         <v>0.9759891108642286</v>
@@ -18153,7 +18153,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C886" t="n">
-        <v>0.5543911609342196</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D886" t="n">
         <v>0.9759891108642286</v>
@@ -18173,7 +18173,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C887" t="n">
-        <v>-1.057070305573945</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D887" t="n">
         <v>0.9759891108642286</v>
@@ -18193,7 +18193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C888" t="n">
-        <v>-0.7998573799470871</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D888" t="n">
         <v>0.9759891108642286</v>
@@ -18213,7 +18213,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C889" t="n">
-        <v>-0.4015919033118349</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D889" t="n">
         <v>-1.024601595313405</v>
@@ -18233,7 +18233,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C890" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D890" t="n">
         <v>-1.024601595313405</v>
@@ -18253,7 +18253,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C891" t="n">
-        <v>-0.2688890517190722</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D891" t="n">
         <v>-1.024601595313405</v>
@@ -18273,7 +18273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C892" t="n">
-        <v>-1.032241882561751</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D892" t="n">
         <v>-1.024601595313405</v>
@@ -18293,7 +18293,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C893" t="n">
-        <v>2.173780952926234</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D893" t="n">
         <v>-1.024601595313405</v>
@@ -18313,7 +18313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C894" t="n">
-        <v>-0.3274251929329731</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D894" t="n">
         <v>-1.024601595313405</v>
@@ -18333,7 +18333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C895" t="n">
-        <v>-1.022254387181588</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D895" t="n">
         <v>-1.024601595313405</v>
@@ -18353,7 +18353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C896" t="n">
-        <v>0.04415914558942619</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D896" t="n">
         <v>-1.024601595313405</v>
@@ -18373,7 +18373,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C897" t="n">
-        <v>-0.5360990563079554</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D897" t="n">
         <v>0.9759891108642286</v>
@@ -18393,7 +18393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C898" t="n">
-        <v>0.008114838081690959</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D898" t="n">
         <v>-1.024601595313405</v>
@@ -18413,7 +18413,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C899" t="n">
-        <v>0.1895362321368749</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D899" t="n">
         <v>0.9759891108642286</v>
@@ -18433,7 +18433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C900" t="n">
-        <v>-0.7955048026392733</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D900" t="n">
         <v>-1.024601595313405</v>
@@ -18453,7 +18453,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C901" t="n">
-        <v>-0.6877975339376795</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D901" t="n">
         <v>-1.024601595313405</v>
@@ -18473,7 +18473,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C902" t="n">
-        <v>-0.4228407171990146</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D902" t="n">
         <v>0.9759891108642286</v>
@@ -18493,7 +18493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C903" t="n">
-        <v>1.144283336584932</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D903" t="n">
         <v>-1.024601595313405</v>
@@ -18513,7 +18513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C904" t="n">
-        <v>1.240947645692716</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D904" t="n">
         <v>-1.024601595313405</v>
@@ -18533,7 +18533,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C905" t="n">
-        <v>2.005025432609166</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D905" t="n">
         <v>0.9759891108642286</v>
@@ -18553,7 +18553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C906" t="n">
-        <v>-1.074998589308577</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D906" t="n">
         <v>0.9759891108642286</v>
@@ -18573,7 +18573,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C907" t="n">
-        <v>-0.7853387492142277</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D907" t="n">
         <v>0.9759891108642286</v>
@@ -18593,7 +18593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C908" t="n">
-        <v>-0.1577220455128767</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D908" t="n">
         <v>0.9759891108642286</v>
@@ -18613,7 +18613,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C909" t="n">
-        <v>-0.8307178174649732</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D909" t="n">
         <v>-1.024601595313405</v>
@@ -18633,7 +18633,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C910" t="n">
-        <v>2.173780952926234</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D910" t="n">
         <v>0.9759891108642286</v>
@@ -18653,7 +18653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C911" t="n">
-        <v>0.3635099089101896</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D911" t="n">
         <v>0.9759891108642286</v>
@@ -18673,7 +18673,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C912" t="n">
-        <v>0.7664880189658062</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D912" t="n">
         <v>-1.024601595313405</v>
@@ -18693,7 +18693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C913" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D913" t="n">
         <v>-1.024601595313405</v>
@@ -18713,7 +18713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C914" t="n">
-        <v>-0.4901704764797394</v>
+        <v>0.3300536417586927</v>
       </c>
       <c r="D914" t="n">
         <v>-1.024601595313405</v>
@@ -18733,7 +18733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C915" t="n">
-        <v>-1.133417575820254</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D915" t="n">
         <v>0.9759891108642286</v>
@@ -18753,7 +18753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C916" t="n">
-        <v>-0.7705744009952536</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D916" t="n">
         <v>-1.024601595313405</v>
@@ -18773,7 +18773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C917" t="n">
-        <v>-0.211384204062691</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D917" t="n">
         <v>0.9759891108642286</v>
@@ -18793,7 +18793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C918" t="n">
-        <v>-1.076319894051308</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D918" t="n">
         <v>0.9759891108642286</v>
@@ -18813,7 +18813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C919" t="n">
-        <v>-0.7038066521072471</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D919" t="n">
         <v>-1.024601595313405</v>
@@ -18833,7 +18833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C920" t="n">
-        <v>-0.9954477849597858</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D920" t="n">
         <v>-1.024601595313405</v>
@@ -18853,7 +18853,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C921" t="n">
-        <v>-0.1229703693452138</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D921" t="n">
         <v>0.9759891108642286</v>
@@ -18873,7 +18873,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C922" t="n">
-        <v>-0.9122693296296729</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D922" t="n">
         <v>-1.024601595313405</v>
@@ -18893,7 +18893,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C923" t="n">
-        <v>-1.001714530289717</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D923" t="n">
         <v>-1.024601595313405</v>
@@ -18913,7 +18913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C924" t="n">
-        <v>0.1867126451611342</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D924" t="n">
         <v>-1.024601595313405</v>
@@ -18933,7 +18933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C925" t="n">
-        <v>0.5695489863342031</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D925" t="n">
         <v>0.9759891108642286</v>
@@ -18953,7 +18953,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C926" t="n">
-        <v>-0.2405295026894823</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D926" t="n">
         <v>0.9759891108642286</v>
@@ -18973,7 +18973,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C927" t="n">
-        <v>2.173780952926234</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D927" t="n">
         <v>-1.024601595313405</v>
@@ -18993,7 +18993,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C928" t="n">
-        <v>-0.4196623245055457</v>
+        <v>0.4722265067674694</v>
       </c>
       <c r="D928" t="n">
         <v>0.9759891108642286</v>
@@ -19013,7 +19013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C929" t="n">
-        <v>-1.122920692984715</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D929" t="n">
         <v>0.9759891108642286</v>
@@ -19033,7 +19033,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C930" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D930" t="n">
         <v>-1.024601595313405</v>
@@ -19053,7 +19053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C931" t="n">
-        <v>-0.392813233252933</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D931" t="n">
         <v>0.9759891108642286</v>
@@ -19073,7 +19073,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C932" t="n">
-        <v>-0.3093204632102997</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D932" t="n">
         <v>-1.024601595313405</v>
@@ -19093,7 +19093,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C933" t="n">
-        <v>2.173780952926234</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D933" t="n">
         <v>0.9759891108642286</v>
@@ -19113,7 +19113,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C934" t="n">
-        <v>-0.8035874359379066</v>
+        <v>-0.5229835482939676</v>
       </c>
       <c r="D934" t="n">
         <v>0.9759891108642286</v>
@@ -19133,7 +19133,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C935" t="n">
-        <v>-0.6316753100827305</v>
+        <v>-0.380810683285191</v>
       </c>
       <c r="D935" t="n">
         <v>-1.024601595313405</v>
@@ -19153,7 +19153,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C936" t="n">
-        <v>-0.8361745245440333</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D936" t="n">
         <v>-1.024601595313405</v>
@@ -19173,7 +19173,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C937" t="n">
-        <v>-0.3976178650928683</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D937" t="n">
         <v>-1.024601595313405</v>
@@ -19193,7 +19193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C938" t="n">
-        <v>-0.9249847050718348</v>
+        <v>-1.020588575824686</v>
       </c>
       <c r="D938" t="n">
         <v>-1.024601595313405</v>
@@ -19213,7 +19213,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C939" t="n">
-        <v>-0.2978532241191888</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D939" t="n">
         <v>0.9759891108642286</v>
@@ -19233,7 +19233,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C940" t="n">
-        <v>-0.8725850607248044</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D940" t="n">
         <v>-1.024601595313405</v>
@@ -19253,7 +19253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C941" t="n">
-        <v>-0.3736528618245124</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D941" t="n">
         <v>0.9759891108642286</v>
@@ -19273,7 +19273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C942" t="n">
-        <v>-0.3478582719652685</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D942" t="n">
         <v>0.9759891108642286</v>
@@ -19293,7 +19293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C943" t="n">
-        <v>2.173780952926234</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D943" t="n">
         <v>0.9759891108642286</v>
@@ -19313,7 +19313,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C944" t="n">
-        <v>-0.7048934342566959</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D944" t="n">
         <v>-1.024601595313405</v>
@@ -19333,7 +19333,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C945" t="n">
-        <v>-0.5278210527936719</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D945" t="n">
         <v>-1.024601595313405</v>
@@ -19353,7 +19353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C946" t="n">
-        <v>-1.022912798591235</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D946" t="n">
         <v>0.9759891108642286</v>
@@ -19373,7 +19373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C947" t="n">
-        <v>-0.0816628875837746</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D947" t="n">
         <v>0.9759891108642286</v>
@@ -19393,7 +19393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C948" t="n">
-        <v>-0.3572454969934638</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D948" t="n">
         <v>0.9759891108642286</v>
@@ -19413,7 +19413,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C949" t="n">
-        <v>-0.5312243200461229</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D949" t="n">
         <v>-1.024601595313405</v>
@@ -19433,7 +19433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C950" t="n">
-        <v>-0.4074432923367223</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D950" t="n">
         <v>0.9759891108642286</v>
@@ -19453,7 +19453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C951" t="n">
-        <v>0.3985770639005752</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D951" t="n">
         <v>0.9759891108642286</v>
@@ -19473,7 +19473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C952" t="n">
-        <v>-0.446615898119337</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D952" t="n">
         <v>0.9759891108642286</v>
@@ -19493,7 +19493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C953" t="n">
-        <v>-0.06233142467761259</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D953" t="n">
         <v>0.9759891108642286</v>
@@ -19513,7 +19513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C954" t="n">
-        <v>-0.2693550329358548</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D954" t="n">
         <v>0.9759891108642286</v>
@@ -19533,7 +19533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C955" t="n">
-        <v>0.0572138581640035</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D955" t="n">
         <v>0.9759891108642286</v>
@@ -19553,7 +19553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C956" t="n">
-        <v>-1.027190234271165</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D956" t="n">
         <v>-1.024601595313405</v>
@@ -19573,7 +19573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C957" t="n">
-        <v>-0.9753892737545317</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D957" t="n">
         <v>-1.024601595313405</v>
@@ -19593,7 +19593,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C958" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D958" t="n">
         <v>-1.024601595313405</v>
@@ -19613,7 +19613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C959" t="n">
-        <v>-0.2680620376873973</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D959" t="n">
         <v>0.9759891108642286</v>
@@ -19633,7 +19633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C960" t="n">
-        <v>0.9762841827418971</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D960" t="n">
         <v>0.9759891108642286</v>
@@ -19653,7 +19653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C961" t="n">
-        <v>-1.066042318075615</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D961" t="n">
         <v>0.9759891108642286</v>
@@ -19673,7 +19673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C962" t="n">
-        <v>-0.831115955053096</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D962" t="n">
         <v>-1.024601595313405</v>
@@ -19693,7 +19693,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C963" t="n">
-        <v>0.9569946982049152</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D963" t="n">
         <v>0.9759891108642286</v>
@@ -19713,7 +19713,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C964" t="n">
-        <v>0.1395732370281741</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D964" t="n">
         <v>0.9759891108642286</v>
@@ -19733,7 +19733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C965" t="n">
-        <v>-0.4253209114965752</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D965" t="n">
         <v>-1.024601595313405</v>
@@ -19753,7 +19753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C966" t="n">
-        <v>-0.6224232219871845</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D966" t="n">
         <v>0.9759891108642286</v>
@@ -19773,7 +19773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C967" t="n">
-        <v>-0.2674335371672342</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D967" t="n">
         <v>0.9759891108642286</v>
@@ -19793,7 +19793,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C968" t="n">
-        <v>-1.034827506175553</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D968" t="n">
         <v>-1.024601595313405</v>
@@ -19813,7 +19813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C969" t="n">
-        <v>-1.00244905507171</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D969" t="n">
         <v>-1.024601595313405</v>
@@ -19833,7 +19833,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C970" t="n">
-        <v>0.1812295770346037</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D970" t="n">
         <v>0.9759891108642286</v>
@@ -19853,7 +19853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C971" t="n">
-        <v>-0.9440600191125559</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D971" t="n">
         <v>-1.024601595313405</v>
@@ -19873,7 +19873,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C972" t="n">
-        <v>-0.8506670470812977</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D972" t="n">
         <v>-1.024601595313405</v>
@@ -19893,7 +19893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C973" t="n">
-        <v>-0.5080064444904862</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D973" t="n">
         <v>-1.024601595313405</v>
@@ -19913,7 +19913,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C974" t="n">
-        <v>0.3856082555195858</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D974" t="n">
         <v>-1.024601595313405</v>
@@ -19933,7 +19933,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C975" t="n">
-        <v>2.173780952926234</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D975" t="n">
         <v>-1.024601595313405</v>
@@ -19953,7 +19953,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C976" t="n">
-        <v>0.1835818431569011</v>
+        <v>1.75178229184646</v>
       </c>
       <c r="D976" t="n">
         <v>0.9759891108642286</v>
@@ -19973,7 +19973,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C977" t="n">
-        <v>-1.034094255568696</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D977" t="n">
         <v>-1.024601595313405</v>
@@ -19993,7 +19993,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C978" t="n">
-        <v>-0.9916151405179124</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D978" t="n">
         <v>0.9759891108642286</v>
@@ -20013,7 +20013,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C979" t="n">
-        <v>0.6342423701676613</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D979" t="n">
         <v>0.9759891108642286</v>
@@ -20033,7 +20033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C980" t="n">
-        <v>-0.1755600512122656</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D980" t="n">
         <v>0.9759891108642286</v>
@@ -20053,7 +20053,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C981" t="n">
-        <v>-0.4278235203691994</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D981" t="n">
         <v>-1.024601595313405</v>
@@ -20073,7 +20073,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C982" t="n">
-        <v>2.173780952926234</v>
+        <v>0.2589672092543043</v>
       </c>
       <c r="D982" t="n">
         <v>-1.024601595313405</v>
@@ -20093,7 +20093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C983" t="n">
-        <v>1.297944168863174</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D983" t="n">
         <v>-1.024601595313405</v>
@@ -20113,7 +20113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C984" t="n">
-        <v>0.2126809690481104</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D984" t="n">
         <v>-1.024601595313405</v>
@@ -20133,7 +20133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C985" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D985" t="n">
         <v>0.9759891108642286</v>
@@ -20153,7 +20153,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C986" t="n">
-        <v>-0.4874678617737511</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D986" t="n">
         <v>-1.024601595313405</v>
@@ -20173,7 +20173,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C987" t="n">
-        <v>-0.6800226709500882</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D987" t="n">
         <v>-1.024601595313405</v>
@@ -20193,7 +20193,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C988" t="n">
-        <v>-1.028303203942287</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D988" t="n">
         <v>-1.024601595313405</v>
@@ -20213,7 +20213,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C989" t="n">
-        <v>1.431252582848918</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D989" t="n">
         <v>0.9759891108642286</v>
@@ -20233,7 +20233,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C990" t="n">
-        <v>-0.7180214490857114</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D990" t="n">
         <v>-1.024601595313405</v>
@@ -20253,7 +20253,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C991" t="n">
-        <v>-0.9416061957782254</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D991" t="n">
         <v>0.9759891108642286</v>
@@ -20273,7 +20273,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C992" t="n">
-        <v>-0.2192597219281723</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D992" t="n">
         <v>-1.024601595313405</v>
@@ -20293,7 +20293,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C993" t="n">
-        <v>-1.121914540836209</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D993" t="n">
         <v>0.9759891108642286</v>
@@ -20313,7 +20313,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C994" t="n">
-        <v>-0.3981691813386254</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D994" t="n">
         <v>-1.024601595313405</v>
@@ -20333,7 +20333,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C995" t="n">
-        <v>-0.623168877209571</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D995" t="n">
         <v>0.9759891108642286</v>
@@ -20353,7 +20353,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C996" t="n">
-        <v>0.1359253231916684</v>
+        <v>1.609609426837683</v>
       </c>
       <c r="D996" t="n">
         <v>0.9759891108642286</v>
@@ -20373,7 +20373,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C997" t="n">
-        <v>-0.0332427847024085</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D997" t="n">
         <v>-1.024601595313405</v>
@@ -20393,7 +20393,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C998" t="n">
-        <v>-1.077079332179839</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D998" t="n">
         <v>0.9759891108642286</v>
@@ -20413,7 +20413,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C999" t="n">
-        <v>-0.9774580879667354</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D999" t="n">
         <v>-1.024601595313405</v>
@@ -20433,7 +20433,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.9152379958355104</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D1000" t="n">
         <v>0.9759891108642286</v>
@@ -20453,7 +20453,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1001" t="n">
-        <v>-1.059889242058332</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D1001" t="n">
         <v>-1.024601595313405</v>
@@ -20473,7 +20473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1002" t="n">
-        <v>-0.3256717296301906</v>
+        <v>0.6854858042806344</v>
       </c>
       <c r="D1002" t="n">
         <v>0.9759891108642286</v>
@@ -20493,7 +20493,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1003" t="n">
-        <v>-0.4541805073357946</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D1003" t="n">
         <v>-1.024601595313405</v>
@@ -20513,7 +20513,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1004" t="n">
-        <v>-0.3664581154070631</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D1004" t="n">
         <v>-1.024601595313405</v>
@@ -20533,7 +20533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1005" t="n">
         <v>-1.024601595313405</v>
@@ -20553,7 +20553,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1006" t="n">
-        <v>-0.5736774161431496</v>
+        <v>0.1167943442455276</v>
       </c>
       <c r="D1006" t="n">
         <v>-1.024601595313405</v>
@@ -20573,7 +20573,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1007" t="n">
-        <v>-0.4445181398042312</v>
+        <v>0.5433129392718578</v>
       </c>
       <c r="D1007" t="n">
         <v>0.9759891108642286</v>
@@ -20593,7 +20593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1008" t="n">
-        <v>-0.3036756293781349</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D1008" t="n">
         <v>0.9759891108642286</v>
@@ -20613,7 +20613,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1009" t="n">
-        <v>-1.074666936890019</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1009" t="n">
         <v>-1.024601595313405</v>
@@ -20633,7 +20633,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1010" t="n">
-        <v>-1.035050100109777</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1010" t="n">
         <v>-1.024601595313405</v>
@@ -20653,7 +20653,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.173780952926234</v>
+        <v>-1.233847873337851</v>
       </c>
       <c r="D1011" t="n">
         <v>-1.024601595313405</v>
@@ -20673,7 +20673,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1012" t="n">
-        <v>-1.045784311698627</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D1012" t="n">
         <v>-1.024601595313405</v>
@@ -20693,7 +20693,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1013" t="n">
-        <v>0.7787578991509649</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D1013" t="n">
         <v>0.9759891108642286</v>
@@ -20713,7 +20713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1014" t="n">
-        <v>-0.8159808069958111</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D1014" t="n">
         <v>-1.024601595313405</v>
@@ -20733,7 +20733,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.8073292783115211</v>
       </c>
       <c r="D1015" t="n">
         <v>0.9759891108642286</v>
@@ -20753,7 +20753,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1016" t="n">
-        <v>-0.1989472185352369</v>
+        <v>0.8276586692894112</v>
       </c>
       <c r="D1016" t="n">
         <v>0.9759891108642286</v>
@@ -20773,7 +20773,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1017" t="n">
-        <v>-0.9442433317642701</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D1017" t="n">
         <v>-1.024601595313405</v>
@@ -20793,7 +20793,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C1018" t="n">
-        <v>0.6871476339813379</v>
+        <v>-0.3097242507808026</v>
       </c>
       <c r="D1018" t="n">
         <v>0.9759891108642286</v>
@@ -20813,7 +20813,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1019" t="n">
-        <v>-0.1611046780691509</v>
+        <v>0.9698315342981879</v>
       </c>
       <c r="D1019" t="n">
         <v>-1.024601595313405</v>
@@ -20833,7 +20833,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1020" t="n">
-        <v>-1.025815215857512</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1020" t="n">
         <v>0.9759891108642286</v>
@@ -20853,7 +20853,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1021" t="n">
-        <v>-0.9683341164458891</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1021" t="n">
         <v>-1.024601595313405</v>
@@ -20873,7 +20873,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1022" t="n">
-        <v>-0.5533161172961607</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D1022" t="n">
         <v>0.9759891108642286</v>
@@ -20893,7 +20893,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1023" t="n">
-        <v>-0.7152030282208347</v>
+        <v>-0.4518971157895793</v>
       </c>
       <c r="D1023" t="n">
         <v>-1.024601595313405</v>
@@ -20913,7 +20913,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1024" t="n">
-        <v>-0.1463712719786819</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D1024" t="n">
         <v>-1.024601595313405</v>
@@ -20933,7 +20933,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1025" t="n">
-        <v>-0.2820137398106695</v>
+        <v>0.8987451017937995</v>
       </c>
       <c r="D1025" t="n">
         <v>0.9759891108642286</v>
@@ -20953,7 +20953,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1026" t="n">
-        <v>-1.084171450483195</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1026" t="n">
         <v>-1.024601595313405</v>
@@ -20973,7 +20973,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.756852244123519</v>
+        <v>0.7565722367850228</v>
       </c>
       <c r="D1027" t="n">
         <v>0.9759891108642286</v>
@@ -20993,7 +20993,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C1028" t="n">
-        <v>-0.7671065424833626</v>
+        <v>-1.376020738346628</v>
       </c>
       <c r="D1028" t="n">
         <v>-1.024601595313405</v>
@@ -21013,7 +21013,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1029" t="n">
-        <v>-1.094754778912808</v>
+        <v>-1.30493430584224</v>
       </c>
       <c r="D1029" t="n">
         <v>0.9759891108642286</v>
@@ -21033,7 +21033,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1030" t="n">
-        <v>0.0656404790864058</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D1030" t="n">
         <v>-1.024601595313405</v>
@@ -21053,7 +21053,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1031" t="n">
-        <v>-0.6389018365103893</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D1031" t="n">
         <v>0.9759891108642286</v>
@@ -21073,7 +21073,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C1032" t="n">
-        <v>-0.1538619443320733</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D1032" t="n">
         <v>-1.024601595313405</v>
@@ -21093,7 +21093,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1033" t="n">
-        <v>-0.7239000469555333</v>
+        <v>-0.2386378182764142</v>
       </c>
       <c r="D1033" t="n">
         <v>-1.024601595313405</v>
@@ -21113,7 +21113,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.150449446481519</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D1034" t="n">
         <v>0.9759891108642286</v>
@@ -21133,7 +21133,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1035" t="n">
-        <v>-0.9987989795995642</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D1035" t="n">
         <v>0.9759891108642286</v>
@@ -21153,7 +21153,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1036" t="n">
-        <v>0.861928644977821</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D1036" t="n">
         <v>0.9759891108642286</v>
@@ -21173,7 +21173,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1037" t="n">
-        <v>-0.4796471036918525</v>
+        <v>0.1878807767499159</v>
       </c>
       <c r="D1037" t="n">
         <v>0.9759891108642286</v>
@@ -21193,7 +21193,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1038" t="n">
-        <v>0.00426589907171212</v>
+        <v>-1.091675008329074</v>
       </c>
       <c r="D1038" t="n">
         <v>0.9759891108642286</v>
@@ -21213,7 +21213,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1039" t="n">
-        <v>-0.7579556942955357</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D1039" t="n">
         <v>-1.024601595313405</v>
@@ -21233,7 +21233,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1040" t="n">
-        <v>0.3541806712453968</v>
+        <v>-0.7362428458071327</v>
       </c>
       <c r="D1040" t="n">
         <v>0.9759891108642286</v>
@@ -21253,7 +21253,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1041" t="n">
-        <v>-0.8989879031226676</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D1041" t="n">
         <v>-1.024601595313405</v>
@@ -21273,7 +21273,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1042" t="n">
-        <v>-0.07970929450063045</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D1042" t="n">
         <v>0.9759891108642286</v>
@@ -21293,7 +21293,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1043" t="n">
-        <v>-0.6654429839261632</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D1043" t="n">
         <v>0.9759891108642286</v>
@@ -21313,7 +21313,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.270747395374685</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D1044" t="n">
         <v>0.9759891108642286</v>
@@ -21333,7 +21333,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.173780952926234</v>
+        <v>0.6143993717762462</v>
       </c>
       <c r="D1045" t="n">
         <v>-1.024601595313405</v>
@@ -21353,7 +21353,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1046" t="n">
-        <v>-1.0847427916059</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1046" t="n">
         <v>0.9759891108642286</v>
@@ -21373,7 +21373,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.173780952926234</v>
+        <v>1.040917966802576</v>
       </c>
       <c r="D1047" t="n">
         <v>0.9759891108642286</v>
@@ -21393,7 +21393,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1048" t="n">
-        <v>-0.8346223561233909</v>
+        <v>-0.6651564133027443</v>
       </c>
       <c r="D1048" t="n">
         <v>-1.024601595313405</v>
@@ -21413,7 +21413,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1049" t="n">
-        <v>-0.4843051062335118</v>
+        <v>0.04570791174113922</v>
       </c>
       <c r="D1049" t="n">
         <v>-1.024601595313405</v>
@@ -21433,7 +21433,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1050" t="n">
-        <v>0.5712838575873311</v>
+        <v>-1.162761440833463</v>
       </c>
       <c r="D1050" t="n">
         <v>-1.024601595313405</v>
@@ -21453,7 +21453,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1051" t="n">
-        <v>-0.9680922661061023</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1051" t="n">
         <v>0.9759891108642286</v>
@@ -21473,7 +21473,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1052" t="n">
-        <v>-0.861791726418053</v>
+        <v>-0.594069980798356</v>
       </c>
       <c r="D1052" t="n">
         <v>0.9759891108642286</v>
@@ -21493,7 +21493,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1053" t="n">
-        <v>0.03204694581685796</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1053" t="n">
         <v>0.9759891108642286</v>
@@ -21513,7 +21513,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1054" t="n">
-        <v>-1.120977303218421</v>
+        <v>-1.447107170851016</v>
       </c>
       <c r="D1054" t="n">
         <v>0.9759891108642286</v>
@@ -21533,7 +21533,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1055" t="n">
-        <v>-0.4794277571689676</v>
+        <v>0.401140074263081</v>
       </c>
       <c r="D1055" t="n">
         <v>-1.024601595313405</v>
@@ -21553,7 +21553,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1056" t="n">
-        <v>0.1403064876350311</v>
+        <v>1.680695859342072</v>
       </c>
       <c r="D1056" t="n">
         <v>0.9759891108642286</v>
@@ -21573,7 +21573,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1057" t="n">
-        <v>-0.5586165619162842</v>
+        <v>-0.0964649532676375</v>
       </c>
       <c r="D1057" t="n">
         <v>-1.024601595313405</v>
@@ -21593,7 +21593,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1058" t="n">
-        <v>0.02464852969279249</v>
+        <v>1.396350129324518</v>
       </c>
       <c r="D1058" t="n">
         <v>-1.024601595313405</v>
@@ -21613,7 +21613,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1059" t="n">
-        <v>-0.9097214255662103</v>
+        <v>-0.9495021433202978</v>
       </c>
       <c r="D1059" t="n">
         <v>-1.024601595313405</v>
@@ -21633,7 +21633,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1060" t="n">
-        <v>0.628324594139231</v>
+        <v>-0.8784157108159095</v>
       </c>
       <c r="D1060" t="n">
         <v>-1.024601595313405</v>
@@ -21653,7 +21653,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1061" t="n">
-        <v>-0.1481106747340457</v>
+        <v>1.183090831811353</v>
       </c>
       <c r="D1061" t="n">
         <v>-1.024601595313405</v>
@@ -21673,7 +21673,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.173780952926234</v>
+        <v>1.538522994333295</v>
       </c>
       <c r="D1062" t="n">
         <v>-1.024601595313405</v>
@@ -21693,7 +21693,7 @@
         <v>1.557100445599568</v>
       </c>
       <c r="C1063" t="n">
-        <v>-0.5534341197958484</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D1063" t="n">
         <v>0.9759891108642286</v>
@@ -21713,7 +21713,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1064" t="n">
-        <v>0.06522858338153839</v>
+        <v>1.467436561828906</v>
       </c>
       <c r="D1064" t="n">
         <v>-1.024601595313405</v>
@@ -21733,7 +21733,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1065" t="n">
-        <v>-1.076974582093145</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1065" t="n">
         <v>0.9759891108642286</v>
@@ -21753,7 +21753,7 @@
         <v>-0.08842792654022237</v>
       </c>
       <c r="C1066" t="n">
-        <v>-0.1162920376821221</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D1066" t="n">
         <v>0.9759891108642286</v>
@@ -21773,7 +21773,7 @@
         <v>2.379864631669464</v>
       </c>
       <c r="C1067" t="n">
-        <v>-0.7938237144673861</v>
+        <v>-1.518193603355405</v>
       </c>
       <c r="D1067" t="n">
         <v>-1.024601595313405</v>
@@ -21793,7 +21793,7 @@
         <v>3.202628817739359</v>
       </c>
       <c r="C1068" t="n">
-        <v>-0.3950997281403726</v>
+        <v>-0.02537852076324914</v>
       </c>
       <c r="D1068" t="n">
         <v>-1.024601595313405</v>
@@ -21813,7 +21813,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1069" t="n">
-        <v>-0.06303848776279626</v>
+        <v>1.32526369682013</v>
       </c>
       <c r="D1069" t="n">
         <v>0.9759891108642286</v>
@@ -21833,7 +21833,7 @@
         <v>0.734336259529673</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.173780952926234</v>
+        <v>-0.1675513857720259</v>
       </c>
       <c r="D1070" t="n">
         <v>-1.024601595313405</v>
@@ -21853,7 +21853,7 @@
         <v>-0.9111921126101178</v>
       </c>
       <c r="C1071" t="n">
-        <v>-0.2332414390564068</v>
+        <v>1.112004399306965</v>
       </c>
       <c r="D1071" t="n">
         <v>0.9759891108642286</v>
